--- a/SalesApp/wwwroot/Reports/Internal_Report.xlsx
+++ b/SalesApp/wwwroot/Reports/Internal_Report.xlsx
@@ -175,7 +175,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -458,13 +458,13 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D7"/>
+  <x:dimension ref="A1:D295"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -499,56 +499,4088 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="3">
-        <x:v>44972</x:v>
+        <x:v>44722</x:v>
       </x:c>
       <x:c r="B3" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="4" t="n">
-        <x:v>97020</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D3" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>7200</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="5" t="s"/>
-      <x:c r="B4" s="5" t="s"/>
-      <x:c r="C4" s="5" t="s"/>
-      <x:c r="D4" s="5" t="s"/>
+      <x:c r="A4" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="n">
+        <x:v>1350</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="n">
+        <x:v>5400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="n">
+        <x:v>21402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="2" t="s"/>
-      <x:c r="D5" s="2" t="n">
-        <x:v>97020</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="C7" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="4" t="n">
+        <x:v>17676</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s"/>
-      <x:c r="C6" s="2" t="s"/>
-      <x:c r="D6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="C8" s="4" t="n">
+        <x:v>6300</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="n">
+        <x:v>3600</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s"/>
-      <x:c r="C7" s="2" t="s"/>
-      <x:c r="D7" s="2" t="n">
-        <x:v>97020</x:v>
+      <x:c r="C10" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="n">
+        <x:v>6750</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B11" s="4" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D11" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B12" s="4" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="n">
+        <x:v>5850</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B13" s="4" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B14" s="4" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C14" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D14" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B15" s="4" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C15" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D15" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B16" s="4" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="4" t="n">
+        <x:v>5886</x:v>
+      </x:c>
+      <x:c r="D16" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B17" s="4" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C17" s="4" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+      <x:c r="D17" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B18" s="4" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C18" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D18" s="4" t="n">
+        <x:v>7200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B19" s="4" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C19" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D19" s="4" t="n">
+        <x:v>1350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B20" s="4" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C20" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D20" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B21" s="4" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D21" s="4" t="n">
+        <x:v>1350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B22" s="4" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C22" s="4" t="n">
+        <x:v>7200</x:v>
+      </x:c>
+      <x:c r="D22" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B23" s="4" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C23" s="4" t="n">
+        <x:v>15750</x:v>
+      </x:c>
+      <x:c r="D23" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B24" s="4" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D24" s="4" t="n">
+        <x:v>7200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B25" s="4" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C25" s="4" t="n">
+        <x:v>2772</x:v>
+      </x:c>
+      <x:c r="D25" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B26" s="4" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C26" s="4" t="n">
+        <x:v>22500</x:v>
+      </x:c>
+      <x:c r="D26" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B27" s="4" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C27" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D27" s="4" t="n">
+        <x:v>3582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B28" s="4" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C28" s="4" t="n">
+        <x:v>1476</x:v>
+      </x:c>
+      <x:c r="D28" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B29" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C29" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D29" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B30" s="4" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C30" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D30" s="4" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B31" s="4" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C31" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D31" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B32" s="4" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C32" s="4" t="n">
+        <x:v>1350</x:v>
+      </x:c>
+      <x:c r="D32" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B33" s="4" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C33" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D33" s="4" t="n">
+        <x:v>6300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B34" s="4" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C34" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D34" s="4" t="n">
+        <x:v>5400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B35" s="4" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C35" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D35" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B36" s="4" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C36" s="4" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+      <x:c r="D36" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B37" s="4" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C37" s="4" t="n">
+        <x:v>1350</x:v>
+      </x:c>
+      <x:c r="D37" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B38" s="4" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C38" s="4" t="n">
+        <x:v>1350</x:v>
+      </x:c>
+      <x:c r="D38" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B39" s="4" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C39" s="4" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+      <x:c r="D39" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B40" s="4" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C40" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D40" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B41" s="4" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C41" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D41" s="4" t="n">
+        <x:v>1350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B42" s="4" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C42" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D42" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="3">
+        <x:v>44722</x:v>
+      </x:c>
+      <x:c r="B43" s="4" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C43" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D43" s="4" t="n">
+        <x:v>3600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="3">
+        <x:v>44723</x:v>
+      </x:c>
+      <x:c r="B44" s="4" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C44" s="4" t="n">
+        <x:v>12150</x:v>
+      </x:c>
+      <x:c r="D44" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="3">
+        <x:v>44723</x:v>
+      </x:c>
+      <x:c r="B45" s="4" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C45" s="4" t="n">
+        <x:v>6804</x:v>
+      </x:c>
+      <x:c r="D45" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="3">
+        <x:v>44723</x:v>
+      </x:c>
+      <x:c r="B46" s="4" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C46" s="4" t="n">
+        <x:v>13500</x:v>
+      </x:c>
+      <x:c r="D46" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="3">
+        <x:v>44723</x:v>
+      </x:c>
+      <x:c r="B47" s="4" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C47" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D47" s="4" t="n">
+        <x:v>3600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="3">
+        <x:v>44723</x:v>
+      </x:c>
+      <x:c r="B48" s="4" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C48" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D48" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="3">
+        <x:v>44723</x:v>
+      </x:c>
+      <x:c r="B49" s="4" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C49" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D49" s="4" t="n">
+        <x:v>6804</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="3">
+        <x:v>44724</x:v>
+      </x:c>
+      <x:c r="B50" s="4" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C50" s="4" t="n">
+        <x:v>22500</x:v>
+      </x:c>
+      <x:c r="D50" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="A51" s="3">
+        <x:v>44724</x:v>
+      </x:c>
+      <x:c r="B51" s="4" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C51" s="4" t="n">
+        <x:v>8550</x:v>
+      </x:c>
+      <x:c r="D51" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="A52" s="3">
+        <x:v>44724</x:v>
+      </x:c>
+      <x:c r="B52" s="4" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C52" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D52" s="4" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="3">
+        <x:v>44724</x:v>
+      </x:c>
+      <x:c r="B53" s="4" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C53" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D53" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="A54" s="3">
+        <x:v>44724</x:v>
+      </x:c>
+      <x:c r="B54" s="4" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C54" s="4" t="n">
+        <x:v>13248</x:v>
+      </x:c>
+      <x:c r="D54" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="A55" s="3">
+        <x:v>44725</x:v>
+      </x:c>
+      <x:c r="B55" s="4" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C55" s="4" t="n">
+        <x:v>9837</x:v>
+      </x:c>
+      <x:c r="D55" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="3">
+        <x:v>44726</x:v>
+      </x:c>
+      <x:c r="B56" s="4" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C56" s="4" t="n">
+        <x:v>14009</x:v>
+      </x:c>
+      <x:c r="D56" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="3">
+        <x:v>44729</x:v>
+      </x:c>
+      <x:c r="B57" s="4" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C57" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D57" s="4" t="n">
+        <x:v>18000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="3">
+        <x:v>44732</x:v>
+      </x:c>
+      <x:c r="B58" s="4" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C58" s="4" t="n">
+        <x:v>8625</x:v>
+      </x:c>
+      <x:c r="D58" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="A59" s="3">
+        <x:v>44732</x:v>
+      </x:c>
+      <x:c r="B59" s="4" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C59" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D59" s="4" t="n">
+        <x:v>11000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="A60" s="3">
+        <x:v>44732</x:v>
+      </x:c>
+      <x:c r="B60" s="4" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C60" s="4" t="n">
+        <x:v>17000</x:v>
+      </x:c>
+      <x:c r="D60" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="A61" s="3">
+        <x:v>44737</x:v>
+      </x:c>
+      <x:c r="B61" s="4" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C61" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D61" s="4" t="n">
+        <x:v>20800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="A62" s="3">
+        <x:v>44737</x:v>
+      </x:c>
+      <x:c r="B62" s="4" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C62" s="4" t="n">
+        <x:v>10501</x:v>
+      </x:c>
+      <x:c r="D62" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="A63" s="3">
+        <x:v>44737</x:v>
+      </x:c>
+      <x:c r="B63" s="4" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C63" s="4" t="n">
+        <x:v>4050</x:v>
+      </x:c>
+      <x:c r="D63" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="3">
+        <x:v>44738</x:v>
+      </x:c>
+      <x:c r="B64" s="4" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C64" s="4" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="D64" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="3">
+        <x:v>44738</x:v>
+      </x:c>
+      <x:c r="B65" s="4" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C65" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D65" s="4" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="A66" s="3">
+        <x:v>44740</x:v>
+      </x:c>
+      <x:c r="B66" s="4" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C66" s="4" t="n">
+        <x:v>11000</x:v>
+      </x:c>
+      <x:c r="D66" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="A67" s="3">
+        <x:v>44740</x:v>
+      </x:c>
+      <x:c r="B67" s="4" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C67" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D67" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="3">
+        <x:v>44742</x:v>
+      </x:c>
+      <x:c r="B68" s="4" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C68" s="4" t="n">
+        <x:v>11000</x:v>
+      </x:c>
+      <x:c r="D68" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="A69" s="3">
+        <x:v>44742</x:v>
+      </x:c>
+      <x:c r="B69" s="4" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C69" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D69" s="4" t="n">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4">
+      <x:c r="A70" s="3">
+        <x:v>44749</x:v>
+      </x:c>
+      <x:c r="B70" s="4" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C70" s="4" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="D70" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4">
+      <x:c r="A71" s="3">
+        <x:v>44750</x:v>
+      </x:c>
+      <x:c r="B71" s="4" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C71" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D71" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4">
+      <x:c r="A72" s="3">
+        <x:v>44751</x:v>
+      </x:c>
+      <x:c r="B72" s="4" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C72" s="4" t="n">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c r="D72" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4">
+      <x:c r="A73" s="3">
+        <x:v>44752</x:v>
+      </x:c>
+      <x:c r="B73" s="4" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C73" s="4" t="n">
+        <x:v>5250</x:v>
+      </x:c>
+      <x:c r="D73" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4">
+      <x:c r="A74" s="3">
+        <x:v>44752</x:v>
+      </x:c>
+      <x:c r="B74" s="4" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C74" s="4" t="n">
+        <x:v>10400</x:v>
+      </x:c>
+      <x:c r="D74" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="3">
+        <x:v>44755</x:v>
+      </x:c>
+      <x:c r="B75" s="4" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C75" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D75" s="4" t="n">
+        <x:v>9750</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="A76" s="3">
+        <x:v>44759</x:v>
+      </x:c>
+      <x:c r="B76" s="4" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C76" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D76" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4">
+      <x:c r="A77" s="3">
+        <x:v>44761</x:v>
+      </x:c>
+      <x:c r="B77" s="4" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C77" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D77" s="4" t="n">
+        <x:v>5100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4">
+      <x:c r="A78" s="3">
+        <x:v>44763</x:v>
+      </x:c>
+      <x:c r="B78" s="4" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C78" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D78" s="4" t="n">
+        <x:v>20500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4">
+      <x:c r="A79" s="3">
+        <x:v>44768</x:v>
+      </x:c>
+      <x:c r="B79" s="4" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C79" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D79" s="4" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4">
+      <x:c r="A80" s="3">
+        <x:v>44771</x:v>
+      </x:c>
+      <x:c r="B80" s="4" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C80" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D80" s="4" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4">
+      <x:c r="A81" s="3">
+        <x:v>44771</x:v>
+      </x:c>
+      <x:c r="B81" s="4" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C81" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D81" s="4" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4">
+      <x:c r="A82" s="3">
+        <x:v>44771</x:v>
+      </x:c>
+      <x:c r="B82" s="4" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C82" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D82" s="4" t="n">
+        <x:v>18000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4">
+      <x:c r="A83" s="3">
+        <x:v>44777</x:v>
+      </x:c>
+      <x:c r="B83" s="4" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C83" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D83" s="4" t="n">
+        <x:v>16000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="3">
+        <x:v>44777</x:v>
+      </x:c>
+      <x:c r="B84" s="4" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C84" s="4" t="n">
+        <x:v>3400</x:v>
+      </x:c>
+      <x:c r="D84" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="A85" s="3">
+        <x:v>44778</x:v>
+      </x:c>
+      <x:c r="B85" s="4" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C85" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D85" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4">
+      <x:c r="A86" s="3">
+        <x:v>44778</x:v>
+      </x:c>
+      <x:c r="B86" s="4" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C86" s="4" t="n">
+        <x:v>2125</x:v>
+      </x:c>
+      <x:c r="D86" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4">
+      <x:c r="A87" s="3">
+        <x:v>44778</x:v>
+      </x:c>
+      <x:c r="B87" s="4" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C87" s="4" t="n">
+        <x:v>8625</x:v>
+      </x:c>
+      <x:c r="D87" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4">
+      <x:c r="A88" s="3">
+        <x:v>44780</x:v>
+      </x:c>
+      <x:c r="B88" s="4" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C88" s="4" t="n">
+        <x:v>8000</x:v>
+      </x:c>
+      <x:c r="D88" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4">
+      <x:c r="A89" s="3">
+        <x:v>44781</x:v>
+      </x:c>
+      <x:c r="B89" s="4" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C89" s="4" t="n">
+        <x:v>12400</x:v>
+      </x:c>
+      <x:c r="D89" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4">
+      <x:c r="A90" s="3">
+        <x:v>44781</x:v>
+      </x:c>
+      <x:c r="B90" s="4" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C90" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D90" s="4" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4">
+      <x:c r="A91" s="3">
+        <x:v>44784</x:v>
+      </x:c>
+      <x:c r="B91" s="4" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C91" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D91" s="4" t="n">
+        <x:v>8625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:4">
+      <x:c r="A92" s="3">
+        <x:v>44785</x:v>
+      </x:c>
+      <x:c r="B92" s="4" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C92" s="4" t="n">
+        <x:v>8000</x:v>
+      </x:c>
+      <x:c r="D92" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:4">
+      <x:c r="A93" s="3">
+        <x:v>44788</x:v>
+      </x:c>
+      <x:c r="B93" s="4" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C93" s="4" t="n">
+        <x:v>19575</x:v>
+      </x:c>
+      <x:c r="D93" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:4">
+      <x:c r="A94" s="3">
+        <x:v>44788</x:v>
+      </x:c>
+      <x:c r="B94" s="4" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C94" s="4" t="n">
+        <x:v>17250</x:v>
+      </x:c>
+      <x:c r="D94" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:4">
+      <x:c r="A95" s="3">
+        <x:v>44790</x:v>
+      </x:c>
+      <x:c r="B95" s="4" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C95" s="4" t="n">
+        <x:v>5250</x:v>
+      </x:c>
+      <x:c r="D95" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:4">
+      <x:c r="A96" s="3">
+        <x:v>44790</x:v>
+      </x:c>
+      <x:c r="B96" s="4" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C96" s="4" t="n">
+        <x:v>16500</x:v>
+      </x:c>
+      <x:c r="D96" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:4">
+      <x:c r="A97" s="3">
+        <x:v>44792</x:v>
+      </x:c>
+      <x:c r="B97" s="4" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C97" s="4" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+      <x:c r="D97" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:4">
+      <x:c r="A98" s="3">
+        <x:v>44792</x:v>
+      </x:c>
+      <x:c r="B98" s="4" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C98" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D98" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:4">
+      <x:c r="A99" s="3">
+        <x:v>44793</x:v>
+      </x:c>
+      <x:c r="B99" s="4" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C99" s="4" t="n">
+        <x:v>13991</x:v>
+      </x:c>
+      <x:c r="D99" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:4">
+      <x:c r="A100" s="3">
+        <x:v>44795</x:v>
+      </x:c>
+      <x:c r="B100" s="4" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C100" s="4" t="n">
+        <x:v>11900</x:v>
+      </x:c>
+      <x:c r="D100" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:4">
+      <x:c r="A101" s="3">
+        <x:v>44796</x:v>
+      </x:c>
+      <x:c r="B101" s="4" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C101" s="4" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+      <x:c r="D101" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:4">
+      <x:c r="A102" s="3">
+        <x:v>44800</x:v>
+      </x:c>
+      <x:c r="B102" s="4" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C102" s="4" t="n">
+        <x:v>11000</x:v>
+      </x:c>
+      <x:c r="D102" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:4">
+      <x:c r="A103" s="3">
+        <x:v>44800</x:v>
+      </x:c>
+      <x:c r="B103" s="4" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C103" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D103" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:4">
+      <x:c r="A104" s="3">
+        <x:v>44801</x:v>
+      </x:c>
+      <x:c r="B104" s="4" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C104" s="4" t="n">
+        <x:v>11600</x:v>
+      </x:c>
+      <x:c r="D104" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:4">
+      <x:c r="A105" s="3">
+        <x:v>44801</x:v>
+      </x:c>
+      <x:c r="B105" s="4" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C105" s="4" t="n">
+        <x:v>9200</x:v>
+      </x:c>
+      <x:c r="D105" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:4">
+      <x:c r="A106" s="3">
+        <x:v>44806</x:v>
+      </x:c>
+      <x:c r="B106" s="4" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C106" s="4" t="n">
+        <x:v>13050</x:v>
+      </x:c>
+      <x:c r="D106" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:4">
+      <x:c r="A107" s="3">
+        <x:v>44807</x:v>
+      </x:c>
+      <x:c r="B107" s="4" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C107" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D107" s="4" t="n">
+        <x:v>14000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:4">
+      <x:c r="A108" s="3">
+        <x:v>44813</x:v>
+      </x:c>
+      <x:c r="B108" s="4" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C108" s="4" t="n">
+        <x:v>23152</x:v>
+      </x:c>
+      <x:c r="D108" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:4">
+      <x:c r="A109" s="3">
+        <x:v>44814</x:v>
+      </x:c>
+      <x:c r="B109" s="4" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C109" s="4" t="n">
+        <x:v>4400</x:v>
+      </x:c>
+      <x:c r="D109" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:4">
+      <x:c r="A110" s="3">
+        <x:v>44814</x:v>
+      </x:c>
+      <x:c r="B110" s="4" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C110" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D110" s="4" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:4">
+      <x:c r="A111" s="3">
+        <x:v>44814</x:v>
+      </x:c>
+      <x:c r="B111" s="4" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C111" s="4" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D111" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:4">
+      <x:c r="A112" s="3">
+        <x:v>44814</x:v>
+      </x:c>
+      <x:c r="B112" s="4" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C112" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D112" s="4" t="n">
+        <x:v>945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:4">
+      <x:c r="A113" s="3">
+        <x:v>44815</x:v>
+      </x:c>
+      <x:c r="B113" s="4" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C113" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D113" s="4" t="n">
+        <x:v>7875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:4">
+      <x:c r="A114" s="3">
+        <x:v>44816</x:v>
+      </x:c>
+      <x:c r="B114" s="4" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C114" s="4" t="n">
+        <x:v>61660</x:v>
+      </x:c>
+      <x:c r="D114" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:4">
+      <x:c r="A115" s="3">
+        <x:v>44817</x:v>
+      </x:c>
+      <x:c r="B115" s="4" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C115" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D115" s="4" t="n">
+        <x:v>4200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:4">
+      <x:c r="A116" s="3">
+        <x:v>44818</x:v>
+      </x:c>
+      <x:c r="B116" s="4" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C116" s="4" t="n">
+        <x:v>2600</x:v>
+      </x:c>
+      <x:c r="D116" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:4">
+      <x:c r="A117" s="3">
+        <x:v>44819</x:v>
+      </x:c>
+      <x:c r="B117" s="4" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C117" s="4" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D117" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:4">
+      <x:c r="A118" s="3">
+        <x:v>44824</x:v>
+      </x:c>
+      <x:c r="B118" s="4" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C118" s="4" t="n">
+        <x:v>21000</x:v>
+      </x:c>
+      <x:c r="D118" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:4">
+      <x:c r="A119" s="3">
+        <x:v>44824</x:v>
+      </x:c>
+      <x:c r="B119" s="4" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C119" s="4" t="n">
+        <x:v>58380</x:v>
+      </x:c>
+      <x:c r="D119" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:4">
+      <x:c r="A120" s="3">
+        <x:v>44828</x:v>
+      </x:c>
+      <x:c r="B120" s="4" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C120" s="4" t="n">
+        <x:v>13230</x:v>
+      </x:c>
+      <x:c r="D120" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:4">
+      <x:c r="A121" s="3">
+        <x:v>44828</x:v>
+      </x:c>
+      <x:c r="B121" s="4" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C121" s="4" t="n">
+        <x:v>30000</x:v>
+      </x:c>
+      <x:c r="D121" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:4">
+      <x:c r="A122" s="3">
+        <x:v>44829</x:v>
+      </x:c>
+      <x:c r="B122" s="4" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C122" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D122" s="4" t="n">
+        <x:v>2155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:4">
+      <x:c r="A123" s="3">
+        <x:v>44831</x:v>
+      </x:c>
+      <x:c r="B123" s="4" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C123" s="4" t="n">
+        <x:v>75075</x:v>
+      </x:c>
+      <x:c r="D123" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:4">
+      <x:c r="A124" s="3">
+        <x:v>44831</x:v>
+      </x:c>
+      <x:c r="B124" s="4" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C124" s="4" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+      <x:c r="D124" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:4">
+      <x:c r="A125" s="3">
+        <x:v>44831</x:v>
+      </x:c>
+      <x:c r="B125" s="4" t="n">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C125" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D125" s="4" t="n">
+        <x:v>14000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:4">
+      <x:c r="A126" s="3">
+        <x:v>44833</x:v>
+      </x:c>
+      <x:c r="B126" s="4" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C126" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D126" s="4" t="n">
+        <x:v>20081</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:4">
+      <x:c r="A127" s="3">
+        <x:v>44833</x:v>
+      </x:c>
+      <x:c r="B127" s="4" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C127" s="4" t="n">
+        <x:v>8573</x:v>
+      </x:c>
+      <x:c r="D127" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:4">
+      <x:c r="A128" s="3">
+        <x:v>44863</x:v>
+      </x:c>
+      <x:c r="B128" s="4" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C128" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D128" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:4">
+      <x:c r="A129" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B129" s="4" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C129" s="4" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="D129" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:4">
+      <x:c r="A130" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B130" s="4" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C130" s="4" t="n">
+        <x:v>33810</x:v>
+      </x:c>
+      <x:c r="D130" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:4">
+      <x:c r="A131" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B131" s="4" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C131" s="4" t="n">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="D131" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:4">
+      <x:c r="A132" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B132" s="4" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C132" s="4" t="n">
+        <x:v>18008</x:v>
+      </x:c>
+      <x:c r="D132" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:4">
+      <x:c r="A133" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B133" s="4" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C133" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D133" s="4" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:4">
+      <x:c r="A134" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B134" s="4" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C134" s="4" t="n">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="D134" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:4">
+      <x:c r="A135" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B135" s="4" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C135" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D135" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:4">
+      <x:c r="A136" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B136" s="4" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C136" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D136" s="4" t="n">
+        <x:v>3200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:4">
+      <x:c r="A137" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B137" s="4" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C137" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D137" s="4" t="n">
+        <x:v>42325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:4">
+      <x:c r="A138" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B138" s="4" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C138" s="4" t="n">
+        <x:v>4250</x:v>
+      </x:c>
+      <x:c r="D138" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:4">
+      <x:c r="A139" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B139" s="4" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C139" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D139" s="4" t="n">
+        <x:v>8400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:4">
+      <x:c r="A140" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B140" s="4" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C140" s="4" t="n">
+        <x:v>27000</x:v>
+      </x:c>
+      <x:c r="D140" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:4">
+      <x:c r="A141" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B141" s="4" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C141" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D141" s="4" t="n">
+        <x:v>7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:4">
+      <x:c r="A142" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B142" s="4" t="n">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C142" s="4" t="n">
+        <x:v>32800</x:v>
+      </x:c>
+      <x:c r="D142" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:4">
+      <x:c r="A143" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B143" s="4" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C143" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D143" s="4" t="n">
+        <x:v>13000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:4">
+      <x:c r="A144" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B144" s="4" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C144" s="4" t="n">
+        <x:v>9500</x:v>
+      </x:c>
+      <x:c r="D144" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:4">
+      <x:c r="A145" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B145" s="4" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C145" s="4" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="D145" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:4">
+      <x:c r="A146" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B146" s="4" t="n">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C146" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D146" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:4">
+      <x:c r="A147" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B147" s="4" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C147" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D147" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:4">
+      <x:c r="A148" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B148" s="4" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C148" s="4" t="n">
+        <x:v>19173</x:v>
+      </x:c>
+      <x:c r="D148" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:4">
+      <x:c r="A149" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B149" s="4" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C149" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D149" s="4" t="n">
+        <x:v>54000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:4">
+      <x:c r="A150" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B150" s="4" t="n">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C150" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D150" s="4" t="n">
+        <x:v>12500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:4">
+      <x:c r="A151" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B151" s="4" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C151" s="4" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="D151" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:4">
+      <x:c r="A152" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B152" s="4" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C152" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D152" s="4" t="n">
+        <x:v>6248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:4">
+      <x:c r="A153" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B153" s="4" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C153" s="4" t="n">
+        <x:v>16802</x:v>
+      </x:c>
+      <x:c r="D153" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:4">
+      <x:c r="A154" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B154" s="4" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C154" s="4" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+      <x:c r="D154" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:4">
+      <x:c r="A155" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B155" s="4" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C155" s="4" t="n">
+        <x:v>5425</x:v>
+      </x:c>
+      <x:c r="D155" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:4">
+      <x:c r="A156" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B156" s="4" t="n">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C156" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D156" s="4" t="n">
+        <x:v>6500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:4">
+      <x:c r="A157" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B157" s="4" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C157" s="4" t="n">
+        <x:v>4300</x:v>
+      </x:c>
+      <x:c r="D157" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:4">
+      <x:c r="A158" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B158" s="4" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C158" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D158" s="4" t="n">
+        <x:v>34000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:4">
+      <x:c r="A159" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B159" s="4" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C159" s="4" t="n">
+        <x:v>37000</x:v>
+      </x:c>
+      <x:c r="D159" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:4">
+      <x:c r="A160" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B160" s="4" t="n">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C160" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D160" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:4">
+      <x:c r="A161" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B161" s="4" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C161" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D161" s="4" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:4">
+      <x:c r="A162" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B162" s="4" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C162" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D162" s="4" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:4">
+      <x:c r="A163" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B163" s="4" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C163" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D163" s="4" t="n">
+        <x:v>8570</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:4">
+      <x:c r="A164" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B164" s="4" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C164" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D164" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:4">
+      <x:c r="A165" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B165" s="4" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C165" s="4" t="n">
+        <x:v>5000</x:v>
+      </x:c>
+      <x:c r="D165" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:4">
+      <x:c r="A166" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B166" s="4" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C166" s="4" t="n">
+        <x:v>5400</x:v>
+      </x:c>
+      <x:c r="D166" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:4">
+      <x:c r="A167" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B167" s="4" t="n">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C167" s="4" t="n">
+        <x:v>18742</x:v>
+      </x:c>
+      <x:c r="D167" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:4">
+      <x:c r="A168" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B168" s="4" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C168" s="4" t="n">
+        <x:v>1512</x:v>
+      </x:c>
+      <x:c r="D168" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:4">
+      <x:c r="A169" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B169" s="4" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C169" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D169" s="4" t="n">
+        <x:v>1550</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:4">
+      <x:c r="A170" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B170" s="4" t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C170" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D170" s="4" t="n">
+        <x:v>3753</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:4">
+      <x:c r="A171" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B171" s="4" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C171" s="4" t="n">
+        <x:v>10500</x:v>
+      </x:c>
+      <x:c r="D171" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:4">
+      <x:c r="A172" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B172" s="4" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C172" s="4" t="n">
+        <x:v>49301</x:v>
+      </x:c>
+      <x:c r="D172" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:4">
+      <x:c r="A173" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B173" s="4" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C173" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D173" s="4" t="n">
+        <x:v>5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:4">
+      <x:c r="A174" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B174" s="4" t="n">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C174" s="4" t="n">
+        <x:v>9600</x:v>
+      </x:c>
+      <x:c r="D174" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:4">
+      <x:c r="A175" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B175" s="4" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C175" s="4" t="n">
+        <x:v>49088</x:v>
+      </x:c>
+      <x:c r="D175" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:4">
+      <x:c r="A176" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B176" s="4" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C176" s="4" t="n">
+        <x:v>6239</x:v>
+      </x:c>
+      <x:c r="D176" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:4">
+      <x:c r="A177" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B177" s="4" t="n">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C177" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D177" s="4" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:4">
+      <x:c r="A178" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B178" s="4" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C178" s="4" t="n">
+        <x:v>13781</x:v>
+      </x:c>
+      <x:c r="D178" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:4">
+      <x:c r="A179" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B179" s="4" t="n">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C179" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c r="D179" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:4">
+      <x:c r="A180" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B180" s="4" t="n">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C180" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D180" s="4" t="n">
+        <x:v>59000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:4">
+      <x:c r="A181" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B181" s="4" t="n">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C181" s="4" t="n">
+        <x:v>37853</x:v>
+      </x:c>
+      <x:c r="D181" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:4">
+      <x:c r="A182" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B182" s="4" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C182" s="4" t="n">
+        <x:v>2520</x:v>
+      </x:c>
+      <x:c r="D182" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:4">
+      <x:c r="A183" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B183" s="4" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C183" s="4" t="n">
+        <x:v>3600</x:v>
+      </x:c>
+      <x:c r="D183" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:4">
+      <x:c r="A184" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B184" s="4" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C184" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D184" s="4" t="n">
+        <x:v>11500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:4">
+      <x:c r="A185" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B185" s="4" t="n">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C185" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D185" s="4" t="n">
+        <x:v>1700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:4">
+      <x:c r="A186" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B186" s="4" t="n">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C186" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D186" s="4" t="n">
+        <x:v>7800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:4">
+      <x:c r="A187" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B187" s="4" t="n">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C187" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D187" s="4" t="n">
+        <x:v>13875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:4">
+      <x:c r="A188" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B188" s="4" t="n">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C188" s="4" t="n">
+        <x:v>6023</x:v>
+      </x:c>
+      <x:c r="D188" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:4">
+      <x:c r="A189" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B189" s="4" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C189" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D189" s="4" t="n">
+        <x:v>2665</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:4">
+      <x:c r="A190" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B190" s="4" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C190" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D190" s="4" t="n">
+        <x:v>17135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:4">
+      <x:c r="A191" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B191" s="4" t="n">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C191" s="4" t="n">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="D191" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:4">
+      <x:c r="A192" s="3">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="B192" s="4" t="n">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C192" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D192" s="4" t="n">
+        <x:v>8700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:4">
+      <x:c r="A193" s="3">
+        <x:v>44936</x:v>
+      </x:c>
+      <x:c r="B193" s="4" t="n">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C193" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D193" s="4" t="n">
+        <x:v>41000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:4">
+      <x:c r="A194" s="3">
+        <x:v>44938</x:v>
+      </x:c>
+      <x:c r="B194" s="4" t="n">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C194" s="4" t="n">
+        <x:v>12080</x:v>
+      </x:c>
+      <x:c r="D194" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:4">
+      <x:c r="A195" s="3">
+        <x:v>44938</x:v>
+      </x:c>
+      <x:c r="B195" s="4" t="n">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C195" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D195" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:4">
+      <x:c r="A196" s="3">
+        <x:v>44942</x:v>
+      </x:c>
+      <x:c r="B196" s="4" t="n">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C196" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D196" s="4" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:4">
+      <x:c r="A197" s="3">
+        <x:v>44942</x:v>
+      </x:c>
+      <x:c r="B197" s="4" t="n">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C197" s="4" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D197" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:4">
+      <x:c r="A198" s="3">
+        <x:v>44943</x:v>
+      </x:c>
+      <x:c r="B198" s="4" t="n">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C198" s="4" t="n">
+        <x:v>27668</x:v>
+      </x:c>
+      <x:c r="D198" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:4">
+      <x:c r="A199" s="3">
+        <x:v>44956</x:v>
+      </x:c>
+      <x:c r="B199" s="4" t="n">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C199" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D199" s="4" t="n">
+        <x:v>16201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:4">
+      <x:c r="A200" s="3">
+        <x:v>44956</x:v>
+      </x:c>
+      <x:c r="B200" s="4" t="n">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C200" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D200" s="4" t="n">
+        <x:v>11701</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:4">
+      <x:c r="A201" s="3">
+        <x:v>44960</x:v>
+      </x:c>
+      <x:c r="B201" s="4" t="n">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C201" s="4" t="n">
+        <x:v>17000</x:v>
+      </x:c>
+      <x:c r="D201" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:4">
+      <x:c r="A202" s="3">
+        <x:v>44962</x:v>
+      </x:c>
+      <x:c r="B202" s="4" t="n">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C202" s="4" t="n">
+        <x:v>230000</x:v>
+      </x:c>
+      <x:c r="D202" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:4">
+      <x:c r="A203" s="3">
+        <x:v>44962</x:v>
+      </x:c>
+      <x:c r="B203" s="4" t="n">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C203" s="4" t="n">
+        <x:v>240000</x:v>
+      </x:c>
+      <x:c r="D203" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:4">
+      <x:c r="A204" s="3">
+        <x:v>44962</x:v>
+      </x:c>
+      <x:c r="B204" s="4" t="n">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C204" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D204" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:4">
+      <x:c r="A205" s="3">
+        <x:v>44962</x:v>
+      </x:c>
+      <x:c r="B205" s="4" t="n">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C205" s="4" t="n">
+        <x:v>3600</x:v>
+      </x:c>
+      <x:c r="D205" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:4">
+      <x:c r="A206" s="3">
+        <x:v>44963</x:v>
+      </x:c>
+      <x:c r="B206" s="4" t="n">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C206" s="4" t="n">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="D206" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:4">
+      <x:c r="A207" s="3">
+        <x:v>44964</x:v>
+      </x:c>
+      <x:c r="B207" s="4" t="n">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C207" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D207" s="4" t="n">
+        <x:v>23000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:4">
+      <x:c r="A208" s="3">
+        <x:v>44964</x:v>
+      </x:c>
+      <x:c r="B208" s="4" t="n">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C208" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D208" s="4" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:4">
+      <x:c r="A209" s="3">
+        <x:v>44967</x:v>
+      </x:c>
+      <x:c r="B209" s="4" t="n">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C209" s="4" t="n">
+        <x:v>3907050</x:v>
+      </x:c>
+      <x:c r="D209" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:4">
+      <x:c r="A210" s="3">
+        <x:v>44969</x:v>
+      </x:c>
+      <x:c r="B210" s="4" t="n">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C210" s="4" t="n">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c r="D210" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:4">
+      <x:c r="A211" s="3">
+        <x:v>44974</x:v>
+      </x:c>
+      <x:c r="B211" s="4" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C211" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D211" s="4" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:4">
+      <x:c r="A212" s="3">
+        <x:v>44974</x:v>
+      </x:c>
+      <x:c r="B212" s="4" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C212" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D212" s="4" t="n">
+        <x:v>6500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:4">
+      <x:c r="A213" s="3">
+        <x:v>44974</x:v>
+      </x:c>
+      <x:c r="B213" s="4" t="n">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C213" s="4" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="D213" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:4">
+      <x:c r="A214" s="3">
+        <x:v>44987</x:v>
+      </x:c>
+      <x:c r="B214" s="4" t="n">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C214" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D214" s="4" t="n">
+        <x:v>12000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:4">
+      <x:c r="A215" s="3">
+        <x:v>44987</x:v>
+      </x:c>
+      <x:c r="B215" s="4" t="n">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C215" s="4" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="D215" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:4">
+      <x:c r="A216" s="3">
+        <x:v>44987</x:v>
+      </x:c>
+      <x:c r="B216" s="4" t="n">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C216" s="4" t="n">
+        <x:v>10080</x:v>
+      </x:c>
+      <x:c r="D216" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:4">
+      <x:c r="A217" s="3">
+        <x:v>44988</x:v>
+      </x:c>
+      <x:c r="B217" s="4" t="n">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C217" s="4" t="n">
+        <x:v>14569</x:v>
+      </x:c>
+      <x:c r="D217" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:4">
+      <x:c r="A218" s="3">
+        <x:v>44988</x:v>
+      </x:c>
+      <x:c r="B218" s="4" t="n">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C218" s="4" t="n">
+        <x:v>1890</x:v>
+      </x:c>
+      <x:c r="D218" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:4">
+      <x:c r="A219" s="3">
+        <x:v>44988</x:v>
+      </x:c>
+      <x:c r="B219" s="4" t="n">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C219" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D219" s="4" t="n">
+        <x:v>21600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:4">
+      <x:c r="A220" s="3">
+        <x:v>44991</x:v>
+      </x:c>
+      <x:c r="B220" s="4" t="n">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C220" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D220" s="4" t="n">
+        <x:v>13500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:4">
+      <x:c r="A221" s="3">
+        <x:v>44995</x:v>
+      </x:c>
+      <x:c r="B221" s="4" t="n">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C221" s="4" t="n">
+        <x:v>44247</x:v>
+      </x:c>
+      <x:c r="D221" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:4">
+      <x:c r="A222" s="3">
+        <x:v>44997</x:v>
+      </x:c>
+      <x:c r="B222" s="4" t="n">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C222" s="4" t="n">
+        <x:v>9600</x:v>
+      </x:c>
+      <x:c r="D222" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:4">
+      <x:c r="A223" s="3">
+        <x:v>45001</x:v>
+      </x:c>
+      <x:c r="B223" s="4" t="n">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C223" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D223" s="4" t="n">
+        <x:v>1268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:4">
+      <x:c r="A224" s="3">
+        <x:v>45004</x:v>
+      </x:c>
+      <x:c r="B224" s="4" t="n">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C224" s="4" t="n">
+        <x:v>4750</x:v>
+      </x:c>
+      <x:c r="D224" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:4">
+      <x:c r="A225" s="3">
+        <x:v>45008</x:v>
+      </x:c>
+      <x:c r="B225" s="4" t="n">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C225" s="4" t="n">
+        <x:v>49416</x:v>
+      </x:c>
+      <x:c r="D225" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:4">
+      <x:c r="A226" s="3">
+        <x:v>45011</x:v>
+      </x:c>
+      <x:c r="B226" s="4" t="n">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C226" s="4" t="n">
+        <x:v>15540</x:v>
+      </x:c>
+      <x:c r="D226" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:4">
+      <x:c r="A227" s="3">
+        <x:v>45012</x:v>
+      </x:c>
+      <x:c r="B227" s="4" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C227" s="4" t="n">
+        <x:v>24300</x:v>
+      </x:c>
+      <x:c r="D227" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:4">
+      <x:c r="A228" s="3">
+        <x:v>45012</x:v>
+      </x:c>
+      <x:c r="B228" s="4" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C228" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D228" s="4" t="n">
+        <x:v>24300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:4">
+      <x:c r="A229" s="3">
+        <x:v>45013</x:v>
+      </x:c>
+      <x:c r="B229" s="4" t="n">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C229" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="D229" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:4">
+      <x:c r="A230" s="3">
+        <x:v>45013</x:v>
+      </x:c>
+      <x:c r="B230" s="4" t="n">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C230" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D230" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:4">
+      <x:c r="A231" s="3">
+        <x:v>45013</x:v>
+      </x:c>
+      <x:c r="B231" s="4" t="n">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C231" s="4" t="n">
+        <x:v>25200</x:v>
+      </x:c>
+      <x:c r="D231" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:4">
+      <x:c r="A232" s="3">
+        <x:v>45013</x:v>
+      </x:c>
+      <x:c r="B232" s="4" t="n">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C232" s="4" t="n">
+        <x:v>26400</x:v>
+      </x:c>
+      <x:c r="D232" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:4">
+      <x:c r="A233" s="3">
+        <x:v>45016</x:v>
+      </x:c>
+      <x:c r="B233" s="4" t="n">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C233" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D233" s="4" t="n">
+        <x:v>3600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:4">
+      <x:c r="A234" s="3">
+        <x:v>45017</x:v>
+      </x:c>
+      <x:c r="B234" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C234" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D234" s="4" t="n">
+        <x:v>70000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:4">
+      <x:c r="A235" s="3">
+        <x:v>45019</x:v>
+      </x:c>
+      <x:c r="B235" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C235" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D235" s="4" t="n">
+        <x:v>14500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:4">
+      <x:c r="A236" s="3">
+        <x:v>45021</x:v>
+      </x:c>
+      <x:c r="B236" s="4" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C236" s="4" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+      <x:c r="D236" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:4">
+      <x:c r="A237" s="3">
+        <x:v>45023</x:v>
+      </x:c>
+      <x:c r="B237" s="4" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C237" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D237" s="4" t="n">
+        <x:v>19350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:4">
+      <x:c r="A238" s="3">
+        <x:v>45023</x:v>
+      </x:c>
+      <x:c r="B238" s="4" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C238" s="4" t="n">
+        <x:v>7000</x:v>
+      </x:c>
+      <x:c r="D238" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:4">
+      <x:c r="A239" s="3">
+        <x:v>45024</x:v>
+      </x:c>
+      <x:c r="B239" s="4" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C239" s="4" t="n">
+        <x:v>32436</x:v>
+      </x:c>
+      <x:c r="D239" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:4">
+      <x:c r="A240" s="3">
+        <x:v>45024</x:v>
+      </x:c>
+      <x:c r="B240" s="4" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C240" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D240" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:4">
+      <x:c r="A241" s="3">
+        <x:v>45026</x:v>
+      </x:c>
+      <x:c r="B241" s="4" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C241" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D241" s="4" t="n">
+        <x:v>7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:4">
+      <x:c r="A242" s="3">
+        <x:v>45026</x:v>
+      </x:c>
+      <x:c r="B242" s="4" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C242" s="4" t="n">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c r="D242" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" spans="1:4">
+      <x:c r="A243" s="3">
+        <x:v>45029</x:v>
+      </x:c>
+      <x:c r="B243" s="4" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C243" s="4" t="n">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="D243" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:4">
+      <x:c r="A244" s="3">
+        <x:v>45029</x:v>
+      </x:c>
+      <x:c r="B244" s="4" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C244" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D244" s="4" t="n">
+        <x:v>27000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" spans="1:4">
+      <x:c r="A245" s="3">
+        <x:v>45029</x:v>
+      </x:c>
+      <x:c r="B245" s="4" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C245" s="4" t="n">
+        <x:v>9200</x:v>
+      </x:c>
+      <x:c r="D245" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:4">
+      <x:c r="A246" s="3">
+        <x:v>45029</x:v>
+      </x:c>
+      <x:c r="B246" s="4" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C246" s="4" t="n">
+        <x:v>6000</x:v>
+      </x:c>
+      <x:c r="D246" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247" spans="1:4">
+      <x:c r="A247" s="3">
+        <x:v>45030</x:v>
+      </x:c>
+      <x:c r="B247" s="4" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C247" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D247" s="4" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248" spans="1:4">
+      <x:c r="A248" s="3">
+        <x:v>45034</x:v>
+      </x:c>
+      <x:c r="B248" s="4" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C248" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D248" s="4" t="n">
+        <x:v>13000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249" spans="1:4">
+      <x:c r="A249" s="3">
+        <x:v>45034</x:v>
+      </x:c>
+      <x:c r="B249" s="4" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C249" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D249" s="4" t="n">
+        <x:v>7900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250" spans="1:4">
+      <x:c r="A250" s="3">
+        <x:v>45035</x:v>
+      </x:c>
+      <x:c r="B250" s="4" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C250" s="4" t="n">
+        <x:v>26500</x:v>
+      </x:c>
+      <x:c r="D250" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:4">
+      <x:c r="A251" s="3">
+        <x:v>45035</x:v>
+      </x:c>
+      <x:c r="B251" s="4" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C251" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D251" s="4" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:4">
+      <x:c r="A252" s="3">
+        <x:v>45043</x:v>
+      </x:c>
+      <x:c r="B252" s="4" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C252" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D252" s="4" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:4">
+      <x:c r="A253" s="3">
+        <x:v>45047</x:v>
+      </x:c>
+      <x:c r="B253" s="4" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C253" s="4" t="n">
+        <x:v>14258</x:v>
+      </x:c>
+      <x:c r="D253" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:4">
+      <x:c r="A254" s="3">
+        <x:v>45048</x:v>
+      </x:c>
+      <x:c r="B254" s="4" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C254" s="4" t="n">
+        <x:v>18000</x:v>
+      </x:c>
+      <x:c r="D254" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:4">
+      <x:c r="A255" s="3">
+        <x:v>45051</x:v>
+      </x:c>
+      <x:c r="B255" s="4" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C255" s="4" t="n">
+        <x:v>35070</x:v>
+      </x:c>
+      <x:c r="D255" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:4">
+      <x:c r="A256" s="3">
+        <x:v>45053</x:v>
+      </x:c>
+      <x:c r="B256" s="4" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C256" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D256" s="4" t="n">
+        <x:v>800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:4">
+      <x:c r="A257" s="3">
+        <x:v>45061</x:v>
+      </x:c>
+      <x:c r="B257" s="4" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C257" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D257" s="4" t="n">
+        <x:v>9056</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:4">
+      <x:c r="A258" s="3">
+        <x:v>45062</x:v>
+      </x:c>
+      <x:c r="B258" s="4" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C258" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D258" s="4" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:4">
+      <x:c r="A259" s="3">
+        <x:v>45062</x:v>
+      </x:c>
+      <x:c r="B259" s="4" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C259" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D259" s="4" t="n">
+        <x:v>34000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:4">
+      <x:c r="A260" s="3">
+        <x:v>45065</x:v>
+      </x:c>
+      <x:c r="B260" s="4" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C260" s="4" t="n">
+        <x:v>31458</x:v>
+      </x:c>
+      <x:c r="D260" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:4">
+      <x:c r="A261" s="3">
+        <x:v>45066</x:v>
+      </x:c>
+      <x:c r="B261" s="4" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C261" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D261" s="4" t="n">
+        <x:v>5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:4">
+      <x:c r="A262" s="3">
+        <x:v>45066</x:v>
+      </x:c>
+      <x:c r="B262" s="4" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C262" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D262" s="4" t="n">
+        <x:v>4849</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:4">
+      <x:c r="A263" s="3">
+        <x:v>45066</x:v>
+      </x:c>
+      <x:c r="B263" s="4" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C263" s="4" t="n">
+        <x:v>42500</x:v>
+      </x:c>
+      <x:c r="D263" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:4">
+      <x:c r="A264" s="3">
+        <x:v>45067</x:v>
+      </x:c>
+      <x:c r="B264" s="4" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C264" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D264" s="4" t="n">
+        <x:v>2678</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:4">
+      <x:c r="A265" s="3">
+        <x:v>45068</x:v>
+      </x:c>
+      <x:c r="B265" s="4" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C265" s="4" t="n">
+        <x:v>11550</x:v>
+      </x:c>
+      <x:c r="D265" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:4">
+      <x:c r="A266" s="3">
+        <x:v>45068</x:v>
+      </x:c>
+      <x:c r="B266" s="4" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C266" s="4" t="n">
+        <x:v>11550</x:v>
+      </x:c>
+      <x:c r="D266" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:4">
+      <x:c r="A267" s="3">
+        <x:v>45072</x:v>
+      </x:c>
+      <x:c r="B267" s="4" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C267" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D267" s="4" t="n">
+        <x:v>1470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:4">
+      <x:c r="A268" s="3">
+        <x:v>45075</x:v>
+      </x:c>
+      <x:c r="B268" s="4" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C268" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D268" s="4" t="n">
+        <x:v>22312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:4">
+      <x:c r="A269" s="3">
+        <x:v>45075</x:v>
+      </x:c>
+      <x:c r="B269" s="4" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C269" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D269" s="4" t="n">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:4">
+      <x:c r="A270" s="3">
+        <x:v>45076</x:v>
+      </x:c>
+      <x:c r="B270" s="4" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C270" s="4" t="n">
+        <x:v>45000</x:v>
+      </x:c>
+      <x:c r="D270" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:4">
+      <x:c r="A271" s="3">
+        <x:v>45076</x:v>
+      </x:c>
+      <x:c r="B271" s="4" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C271" s="4" t="n">
+        <x:v>28724</x:v>
+      </x:c>
+      <x:c r="D271" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:4">
+      <x:c r="A272" s="3">
+        <x:v>45077</x:v>
+      </x:c>
+      <x:c r="B272" s="4" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C272" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D272" s="4" t="n">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:4">
+      <x:c r="A273" s="3">
+        <x:v>45077</x:v>
+      </x:c>
+      <x:c r="B273" s="4" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C273" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D273" s="4" t="n">
+        <x:v>5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:4">
+      <x:c r="A274" s="3">
+        <x:v>45077</x:v>
+      </x:c>
+      <x:c r="B274" s="4" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C274" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c r="D274" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:4">
+      <x:c r="A275" s="3">
+        <x:v>45082</x:v>
+      </x:c>
+      <x:c r="B275" s="4" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C275" s="4" t="n">
+        <x:v>8400</x:v>
+      </x:c>
+      <x:c r="D275" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:4">
+      <x:c r="A276" s="3">
+        <x:v>45083</x:v>
+      </x:c>
+      <x:c r="B276" s="4" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C276" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D276" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:4">
+      <x:c r="A277" s="3">
+        <x:v>45084</x:v>
+      </x:c>
+      <x:c r="B277" s="4" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C277" s="4" t="n">
+        <x:v>384300</x:v>
+      </x:c>
+      <x:c r="D277" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:4">
+      <x:c r="A278" s="3">
+        <x:v>45090</x:v>
+      </x:c>
+      <x:c r="B278" s="4" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C278" s="4" t="n">
+        <x:v>6300</x:v>
+      </x:c>
+      <x:c r="D278" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279" spans="1:4">
+      <x:c r="A279" s="3">
+        <x:v>45090</x:v>
+      </x:c>
+      <x:c r="B279" s="4" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C279" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D279" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280" spans="1:4">
+      <x:c r="A280" s="3">
+        <x:v>45092</x:v>
+      </x:c>
+      <x:c r="B280" s="4" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C280" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D280" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281" spans="1:4">
+      <x:c r="A281" s="3">
+        <x:v>45092</x:v>
+      </x:c>
+      <x:c r="B281" s="4" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C281" s="4" t="n">
+        <x:v>28350</x:v>
+      </x:c>
+      <x:c r="D281" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="282" spans="1:4">
+      <x:c r="A282" s="3">
+        <x:v>45092</x:v>
+      </x:c>
+      <x:c r="B282" s="4" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C282" s="4" t="n">
+        <x:v>96649</x:v>
+      </x:c>
+      <x:c r="D282" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="283" spans="1:4">
+      <x:c r="A283" s="3">
+        <x:v>45093</x:v>
+      </x:c>
+      <x:c r="B283" s="4" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C283" s="4" t="n">
+        <x:v>8820</x:v>
+      </x:c>
+      <x:c r="D283" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284" spans="1:4">
+      <x:c r="A284" s="3">
+        <x:v>45097</x:v>
+      </x:c>
+      <x:c r="B284" s="4" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C284" s="4" t="n">
+        <x:v>11760</x:v>
+      </x:c>
+      <x:c r="D284" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="285" spans="1:4">
+      <x:c r="A285" s="3">
+        <x:v>45098</x:v>
+      </x:c>
+      <x:c r="B285" s="4" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C285" s="4" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="D285" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286" spans="1:4">
+      <x:c r="A286" s="3">
+        <x:v>45098</x:v>
+      </x:c>
+      <x:c r="B286" s="4" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C286" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D286" s="4" t="n">
+        <x:v>9180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287" spans="1:4">
+      <x:c r="A287" s="3">
+        <x:v>45099</x:v>
+      </x:c>
+      <x:c r="B287" s="4" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C287" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D287" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:4">
+      <x:c r="A288" s="3">
+        <x:v>45099</x:v>
+      </x:c>
+      <x:c r="B288" s="4" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C288" s="4" t="n">
+        <x:v>94353</x:v>
+      </x:c>
+      <x:c r="D288" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289" spans="1:4">
+      <x:c r="A289" s="3">
+        <x:v>45103</x:v>
+      </x:c>
+      <x:c r="B289" s="4" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C289" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c r="D289" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290" spans="1:4">
+      <x:c r="A290" s="3">
+        <x:v>45103</x:v>
+      </x:c>
+      <x:c r="B290" s="4" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C290" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c r="D290" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:4">
+      <x:c r="A291" s="3">
+        <x:v>45103</x:v>
+      </x:c>
+      <x:c r="B291" s="4" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C291" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D291" s="4" t="n">
+        <x:v>756</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:4">
+      <x:c r="A292" s="5" t="s"/>
+      <x:c r="B292" s="5" t="s"/>
+      <x:c r="C292" s="5" t="s"/>
+      <x:c r="D292" s="5" t="s"/>
+    </x:row>
+    <x:row r="293" spans="1:4">
+      <x:c r="A293" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B293" s="2" t="s"/>
+      <x:c r="C293" s="2" t="s"/>
+      <x:c r="D293" s="2" t="n">
+        <x:v>7064537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:4">
+      <x:c r="A294" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B294" s="2" t="s"/>
+      <x:c r="C294" s="2" t="s"/>
+      <x:c r="D294" s="2" t="n">
+        <x:v>1227389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:4">
+      <x:c r="A295" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B295" s="2" t="s"/>
+      <x:c r="C295" s="2" t="s"/>
+      <x:c r="D295" s="2" t="n">
+        <x:v>8291926</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="15">
+  <x:mergeCells count="1167">
     <x:mergeCell ref="A1:D1"/>
     <x:mergeCell ref="A2:A2"/>
     <x:mergeCell ref="B2:B2"/>
@@ -558,12 +4590,1164 @@
     <x:mergeCell ref="B3:B3"/>
     <x:mergeCell ref="C3:C3"/>
     <x:mergeCell ref="D3:D3"/>
-    <x:mergeCell ref="A5:C5"/>
+    <x:mergeCell ref="A4:A4"/>
+    <x:mergeCell ref="B4:B4"/>
+    <x:mergeCell ref="C4:C4"/>
+    <x:mergeCell ref="D4:D4"/>
+    <x:mergeCell ref="A5:A5"/>
+    <x:mergeCell ref="B5:B5"/>
+    <x:mergeCell ref="C5:C5"/>
     <x:mergeCell ref="D5:D5"/>
-    <x:mergeCell ref="A6:C6"/>
+    <x:mergeCell ref="A6:A6"/>
+    <x:mergeCell ref="B6:B6"/>
+    <x:mergeCell ref="C6:C6"/>
     <x:mergeCell ref="D6:D6"/>
-    <x:mergeCell ref="A7:C7"/>
+    <x:mergeCell ref="A7:A7"/>
+    <x:mergeCell ref="B7:B7"/>
+    <x:mergeCell ref="C7:C7"/>
     <x:mergeCell ref="D7:D7"/>
+    <x:mergeCell ref="A8:A8"/>
+    <x:mergeCell ref="B8:B8"/>
+    <x:mergeCell ref="C8:C8"/>
+    <x:mergeCell ref="D8:D8"/>
+    <x:mergeCell ref="A9:A9"/>
+    <x:mergeCell ref="B9:B9"/>
+    <x:mergeCell ref="C9:C9"/>
+    <x:mergeCell ref="D9:D9"/>
+    <x:mergeCell ref="A10:A10"/>
+    <x:mergeCell ref="B10:B10"/>
+    <x:mergeCell ref="C10:C10"/>
+    <x:mergeCell ref="D10:D10"/>
+    <x:mergeCell ref="A11:A11"/>
+    <x:mergeCell ref="B11:B11"/>
+    <x:mergeCell ref="C11:C11"/>
+    <x:mergeCell ref="D11:D11"/>
+    <x:mergeCell ref="A12:A12"/>
+    <x:mergeCell ref="B12:B12"/>
+    <x:mergeCell ref="C12:C12"/>
+    <x:mergeCell ref="D12:D12"/>
+    <x:mergeCell ref="A13:A13"/>
+    <x:mergeCell ref="B13:B13"/>
+    <x:mergeCell ref="C13:C13"/>
+    <x:mergeCell ref="D13:D13"/>
+    <x:mergeCell ref="A14:A14"/>
+    <x:mergeCell ref="B14:B14"/>
+    <x:mergeCell ref="C14:C14"/>
+    <x:mergeCell ref="D14:D14"/>
+    <x:mergeCell ref="A15:A15"/>
+    <x:mergeCell ref="B15:B15"/>
+    <x:mergeCell ref="C15:C15"/>
+    <x:mergeCell ref="D15:D15"/>
+    <x:mergeCell ref="A16:A16"/>
+    <x:mergeCell ref="B16:B16"/>
+    <x:mergeCell ref="C16:C16"/>
+    <x:mergeCell ref="D16:D16"/>
+    <x:mergeCell ref="A17:A17"/>
+    <x:mergeCell ref="B17:B17"/>
+    <x:mergeCell ref="C17:C17"/>
+    <x:mergeCell ref="D17:D17"/>
+    <x:mergeCell ref="A18:A18"/>
+    <x:mergeCell ref="B18:B18"/>
+    <x:mergeCell ref="C18:C18"/>
+    <x:mergeCell ref="D18:D18"/>
+    <x:mergeCell ref="A19:A19"/>
+    <x:mergeCell ref="B19:B19"/>
+    <x:mergeCell ref="C19:C19"/>
+    <x:mergeCell ref="D19:D19"/>
+    <x:mergeCell ref="A20:A20"/>
+    <x:mergeCell ref="B20:B20"/>
+    <x:mergeCell ref="C20:C20"/>
+    <x:mergeCell ref="D20:D20"/>
+    <x:mergeCell ref="A21:A21"/>
+    <x:mergeCell ref="B21:B21"/>
+    <x:mergeCell ref="C21:C21"/>
+    <x:mergeCell ref="D21:D21"/>
+    <x:mergeCell ref="A22:A22"/>
+    <x:mergeCell ref="B22:B22"/>
+    <x:mergeCell ref="C22:C22"/>
+    <x:mergeCell ref="D22:D22"/>
+    <x:mergeCell ref="A23:A23"/>
+    <x:mergeCell ref="B23:B23"/>
+    <x:mergeCell ref="C23:C23"/>
+    <x:mergeCell ref="D23:D23"/>
+    <x:mergeCell ref="A24:A24"/>
+    <x:mergeCell ref="B24:B24"/>
+    <x:mergeCell ref="C24:C24"/>
+    <x:mergeCell ref="D24:D24"/>
+    <x:mergeCell ref="A25:A25"/>
+    <x:mergeCell ref="B25:B25"/>
+    <x:mergeCell ref="C25:C25"/>
+    <x:mergeCell ref="D25:D25"/>
+    <x:mergeCell ref="A26:A26"/>
+    <x:mergeCell ref="B26:B26"/>
+    <x:mergeCell ref="C26:C26"/>
+    <x:mergeCell ref="D26:D26"/>
+    <x:mergeCell ref="A27:A27"/>
+    <x:mergeCell ref="B27:B27"/>
+    <x:mergeCell ref="C27:C27"/>
+    <x:mergeCell ref="D27:D27"/>
+    <x:mergeCell ref="A28:A28"/>
+    <x:mergeCell ref="B28:B28"/>
+    <x:mergeCell ref="C28:C28"/>
+    <x:mergeCell ref="D28:D28"/>
+    <x:mergeCell ref="A29:A29"/>
+    <x:mergeCell ref="B29:B29"/>
+    <x:mergeCell ref="C29:C29"/>
+    <x:mergeCell ref="D29:D29"/>
+    <x:mergeCell ref="A30:A30"/>
+    <x:mergeCell ref="B30:B30"/>
+    <x:mergeCell ref="C30:C30"/>
+    <x:mergeCell ref="D30:D30"/>
+    <x:mergeCell ref="A31:A31"/>
+    <x:mergeCell ref="B31:B31"/>
+    <x:mergeCell ref="C31:C31"/>
+    <x:mergeCell ref="D31:D31"/>
+    <x:mergeCell ref="A32:A32"/>
+    <x:mergeCell ref="B32:B32"/>
+    <x:mergeCell ref="C32:C32"/>
+    <x:mergeCell ref="D32:D32"/>
+    <x:mergeCell ref="A33:A33"/>
+    <x:mergeCell ref="B33:B33"/>
+    <x:mergeCell ref="C33:C33"/>
+    <x:mergeCell ref="D33:D33"/>
+    <x:mergeCell ref="A34:A34"/>
+    <x:mergeCell ref="B34:B34"/>
+    <x:mergeCell ref="C34:C34"/>
+    <x:mergeCell ref="D34:D34"/>
+    <x:mergeCell ref="A35:A35"/>
+    <x:mergeCell ref="B35:B35"/>
+    <x:mergeCell ref="C35:C35"/>
+    <x:mergeCell ref="D35:D35"/>
+    <x:mergeCell ref="A36:A36"/>
+    <x:mergeCell ref="B36:B36"/>
+    <x:mergeCell ref="C36:C36"/>
+    <x:mergeCell ref="D36:D36"/>
+    <x:mergeCell ref="A37:A37"/>
+    <x:mergeCell ref="B37:B37"/>
+    <x:mergeCell ref="C37:C37"/>
+    <x:mergeCell ref="D37:D37"/>
+    <x:mergeCell ref="A38:A38"/>
+    <x:mergeCell ref="B38:B38"/>
+    <x:mergeCell ref="C38:C38"/>
+    <x:mergeCell ref="D38:D38"/>
+    <x:mergeCell ref="A39:A39"/>
+    <x:mergeCell ref="B39:B39"/>
+    <x:mergeCell ref="C39:C39"/>
+    <x:mergeCell ref="D39:D39"/>
+    <x:mergeCell ref="A40:A40"/>
+    <x:mergeCell ref="B40:B40"/>
+    <x:mergeCell ref="C40:C40"/>
+    <x:mergeCell ref="D40:D40"/>
+    <x:mergeCell ref="A41:A41"/>
+    <x:mergeCell ref="B41:B41"/>
+    <x:mergeCell ref="C41:C41"/>
+    <x:mergeCell ref="D41:D41"/>
+    <x:mergeCell ref="A42:A42"/>
+    <x:mergeCell ref="B42:B42"/>
+    <x:mergeCell ref="C42:C42"/>
+    <x:mergeCell ref="D42:D42"/>
+    <x:mergeCell ref="A43:A43"/>
+    <x:mergeCell ref="B43:B43"/>
+    <x:mergeCell ref="C43:C43"/>
+    <x:mergeCell ref="D43:D43"/>
+    <x:mergeCell ref="A44:A44"/>
+    <x:mergeCell ref="B44:B44"/>
+    <x:mergeCell ref="C44:C44"/>
+    <x:mergeCell ref="D44:D44"/>
+    <x:mergeCell ref="A45:A45"/>
+    <x:mergeCell ref="B45:B45"/>
+    <x:mergeCell ref="C45:C45"/>
+    <x:mergeCell ref="D45:D45"/>
+    <x:mergeCell ref="A46:A46"/>
+    <x:mergeCell ref="B46:B46"/>
+    <x:mergeCell ref="C46:C46"/>
+    <x:mergeCell ref="D46:D46"/>
+    <x:mergeCell ref="A47:A47"/>
+    <x:mergeCell ref="B47:B47"/>
+    <x:mergeCell ref="C47:C47"/>
+    <x:mergeCell ref="D47:D47"/>
+    <x:mergeCell ref="A48:A48"/>
+    <x:mergeCell ref="B48:B48"/>
+    <x:mergeCell ref="C48:C48"/>
+    <x:mergeCell ref="D48:D48"/>
+    <x:mergeCell ref="A49:A49"/>
+    <x:mergeCell ref="B49:B49"/>
+    <x:mergeCell ref="C49:C49"/>
+    <x:mergeCell ref="D49:D49"/>
+    <x:mergeCell ref="A50:A50"/>
+    <x:mergeCell ref="B50:B50"/>
+    <x:mergeCell ref="C50:C50"/>
+    <x:mergeCell ref="D50:D50"/>
+    <x:mergeCell ref="A51:A51"/>
+    <x:mergeCell ref="B51:B51"/>
+    <x:mergeCell ref="C51:C51"/>
+    <x:mergeCell ref="D51:D51"/>
+    <x:mergeCell ref="A52:A52"/>
+    <x:mergeCell ref="B52:B52"/>
+    <x:mergeCell ref="C52:C52"/>
+    <x:mergeCell ref="D52:D52"/>
+    <x:mergeCell ref="A53:A53"/>
+    <x:mergeCell ref="B53:B53"/>
+    <x:mergeCell ref="C53:C53"/>
+    <x:mergeCell ref="D53:D53"/>
+    <x:mergeCell ref="A54:A54"/>
+    <x:mergeCell ref="B54:B54"/>
+    <x:mergeCell ref="C54:C54"/>
+    <x:mergeCell ref="D54:D54"/>
+    <x:mergeCell ref="A55:A55"/>
+    <x:mergeCell ref="B55:B55"/>
+    <x:mergeCell ref="C55:C55"/>
+    <x:mergeCell ref="D55:D55"/>
+    <x:mergeCell ref="A56:A56"/>
+    <x:mergeCell ref="B56:B56"/>
+    <x:mergeCell ref="C56:C56"/>
+    <x:mergeCell ref="D56:D56"/>
+    <x:mergeCell ref="A57:A57"/>
+    <x:mergeCell ref="B57:B57"/>
+    <x:mergeCell ref="C57:C57"/>
+    <x:mergeCell ref="D57:D57"/>
+    <x:mergeCell ref="A58:A58"/>
+    <x:mergeCell ref="B58:B58"/>
+    <x:mergeCell ref="C58:C58"/>
+    <x:mergeCell ref="D58:D58"/>
+    <x:mergeCell ref="A59:A59"/>
+    <x:mergeCell ref="B59:B59"/>
+    <x:mergeCell ref="C59:C59"/>
+    <x:mergeCell ref="D59:D59"/>
+    <x:mergeCell ref="A60:A60"/>
+    <x:mergeCell ref="B60:B60"/>
+    <x:mergeCell ref="C60:C60"/>
+    <x:mergeCell ref="D60:D60"/>
+    <x:mergeCell ref="A61:A61"/>
+    <x:mergeCell ref="B61:B61"/>
+    <x:mergeCell ref="C61:C61"/>
+    <x:mergeCell ref="D61:D61"/>
+    <x:mergeCell ref="A62:A62"/>
+    <x:mergeCell ref="B62:B62"/>
+    <x:mergeCell ref="C62:C62"/>
+    <x:mergeCell ref="D62:D62"/>
+    <x:mergeCell ref="A63:A63"/>
+    <x:mergeCell ref="B63:B63"/>
+    <x:mergeCell ref="C63:C63"/>
+    <x:mergeCell ref="D63:D63"/>
+    <x:mergeCell ref="A64:A64"/>
+    <x:mergeCell ref="B64:B64"/>
+    <x:mergeCell ref="C64:C64"/>
+    <x:mergeCell ref="D64:D64"/>
+    <x:mergeCell ref="A65:A65"/>
+    <x:mergeCell ref="B65:B65"/>
+    <x:mergeCell ref="C65:C65"/>
+    <x:mergeCell ref="D65:D65"/>
+    <x:mergeCell ref="A66:A66"/>
+    <x:mergeCell ref="B66:B66"/>
+    <x:mergeCell ref="C66:C66"/>
+    <x:mergeCell ref="D66:D66"/>
+    <x:mergeCell ref="A67:A67"/>
+    <x:mergeCell ref="B67:B67"/>
+    <x:mergeCell ref="C67:C67"/>
+    <x:mergeCell ref="D67:D67"/>
+    <x:mergeCell ref="A68:A68"/>
+    <x:mergeCell ref="B68:B68"/>
+    <x:mergeCell ref="C68:C68"/>
+    <x:mergeCell ref="D68:D68"/>
+    <x:mergeCell ref="A69:A69"/>
+    <x:mergeCell ref="B69:B69"/>
+    <x:mergeCell ref="C69:C69"/>
+    <x:mergeCell ref="D69:D69"/>
+    <x:mergeCell ref="A70:A70"/>
+    <x:mergeCell ref="B70:B70"/>
+    <x:mergeCell ref="C70:C70"/>
+    <x:mergeCell ref="D70:D70"/>
+    <x:mergeCell ref="A71:A71"/>
+    <x:mergeCell ref="B71:B71"/>
+    <x:mergeCell ref="C71:C71"/>
+    <x:mergeCell ref="D71:D71"/>
+    <x:mergeCell ref="A72:A72"/>
+    <x:mergeCell ref="B72:B72"/>
+    <x:mergeCell ref="C72:C72"/>
+    <x:mergeCell ref="D72:D72"/>
+    <x:mergeCell ref="A73:A73"/>
+    <x:mergeCell ref="B73:B73"/>
+    <x:mergeCell ref="C73:C73"/>
+    <x:mergeCell ref="D73:D73"/>
+    <x:mergeCell ref="A74:A74"/>
+    <x:mergeCell ref="B74:B74"/>
+    <x:mergeCell ref="C74:C74"/>
+    <x:mergeCell ref="D74:D74"/>
+    <x:mergeCell ref="A75:A75"/>
+    <x:mergeCell ref="B75:B75"/>
+    <x:mergeCell ref="C75:C75"/>
+    <x:mergeCell ref="D75:D75"/>
+    <x:mergeCell ref="A76:A76"/>
+    <x:mergeCell ref="B76:B76"/>
+    <x:mergeCell ref="C76:C76"/>
+    <x:mergeCell ref="D76:D76"/>
+    <x:mergeCell ref="A77:A77"/>
+    <x:mergeCell ref="B77:B77"/>
+    <x:mergeCell ref="C77:C77"/>
+    <x:mergeCell ref="D77:D77"/>
+    <x:mergeCell ref="A78:A78"/>
+    <x:mergeCell ref="B78:B78"/>
+    <x:mergeCell ref="C78:C78"/>
+    <x:mergeCell ref="D78:D78"/>
+    <x:mergeCell ref="A79:A79"/>
+    <x:mergeCell ref="B79:B79"/>
+    <x:mergeCell ref="C79:C79"/>
+    <x:mergeCell ref="D79:D79"/>
+    <x:mergeCell ref="A80:A80"/>
+    <x:mergeCell ref="B80:B80"/>
+    <x:mergeCell ref="C80:C80"/>
+    <x:mergeCell ref="D80:D80"/>
+    <x:mergeCell ref="A81:A81"/>
+    <x:mergeCell ref="B81:B81"/>
+    <x:mergeCell ref="C81:C81"/>
+    <x:mergeCell ref="D81:D81"/>
+    <x:mergeCell ref="A82:A82"/>
+    <x:mergeCell ref="B82:B82"/>
+    <x:mergeCell ref="C82:C82"/>
+    <x:mergeCell ref="D82:D82"/>
+    <x:mergeCell ref="A83:A83"/>
+    <x:mergeCell ref="B83:B83"/>
+    <x:mergeCell ref="C83:C83"/>
+    <x:mergeCell ref="D83:D83"/>
+    <x:mergeCell ref="A84:A84"/>
+    <x:mergeCell ref="B84:B84"/>
+    <x:mergeCell ref="C84:C84"/>
+    <x:mergeCell ref="D84:D84"/>
+    <x:mergeCell ref="A85:A85"/>
+    <x:mergeCell ref="B85:B85"/>
+    <x:mergeCell ref="C85:C85"/>
+    <x:mergeCell ref="D85:D85"/>
+    <x:mergeCell ref="A86:A86"/>
+    <x:mergeCell ref="B86:B86"/>
+    <x:mergeCell ref="C86:C86"/>
+    <x:mergeCell ref="D86:D86"/>
+    <x:mergeCell ref="A87:A87"/>
+    <x:mergeCell ref="B87:B87"/>
+    <x:mergeCell ref="C87:C87"/>
+    <x:mergeCell ref="D87:D87"/>
+    <x:mergeCell ref="A88:A88"/>
+    <x:mergeCell ref="B88:B88"/>
+    <x:mergeCell ref="C88:C88"/>
+    <x:mergeCell ref="D88:D88"/>
+    <x:mergeCell ref="A89:A89"/>
+    <x:mergeCell ref="B89:B89"/>
+    <x:mergeCell ref="C89:C89"/>
+    <x:mergeCell ref="D89:D89"/>
+    <x:mergeCell ref="A90:A90"/>
+    <x:mergeCell ref="B90:B90"/>
+    <x:mergeCell ref="C90:C90"/>
+    <x:mergeCell ref="D90:D90"/>
+    <x:mergeCell ref="A91:A91"/>
+    <x:mergeCell ref="B91:B91"/>
+    <x:mergeCell ref="C91:C91"/>
+    <x:mergeCell ref="D91:D91"/>
+    <x:mergeCell ref="A92:A92"/>
+    <x:mergeCell ref="B92:B92"/>
+    <x:mergeCell ref="C92:C92"/>
+    <x:mergeCell ref="D92:D92"/>
+    <x:mergeCell ref="A93:A93"/>
+    <x:mergeCell ref="B93:B93"/>
+    <x:mergeCell ref="C93:C93"/>
+    <x:mergeCell ref="D93:D93"/>
+    <x:mergeCell ref="A94:A94"/>
+    <x:mergeCell ref="B94:B94"/>
+    <x:mergeCell ref="C94:C94"/>
+    <x:mergeCell ref="D94:D94"/>
+    <x:mergeCell ref="A95:A95"/>
+    <x:mergeCell ref="B95:B95"/>
+    <x:mergeCell ref="C95:C95"/>
+    <x:mergeCell ref="D95:D95"/>
+    <x:mergeCell ref="A96:A96"/>
+    <x:mergeCell ref="B96:B96"/>
+    <x:mergeCell ref="C96:C96"/>
+    <x:mergeCell ref="D96:D96"/>
+    <x:mergeCell ref="A97:A97"/>
+    <x:mergeCell ref="B97:B97"/>
+    <x:mergeCell ref="C97:C97"/>
+    <x:mergeCell ref="D97:D97"/>
+    <x:mergeCell ref="A98:A98"/>
+    <x:mergeCell ref="B98:B98"/>
+    <x:mergeCell ref="C98:C98"/>
+    <x:mergeCell ref="D98:D98"/>
+    <x:mergeCell ref="A99:A99"/>
+    <x:mergeCell ref="B99:B99"/>
+    <x:mergeCell ref="C99:C99"/>
+    <x:mergeCell ref="D99:D99"/>
+    <x:mergeCell ref="A100:A100"/>
+    <x:mergeCell ref="B100:B100"/>
+    <x:mergeCell ref="C100:C100"/>
+    <x:mergeCell ref="D100:D100"/>
+    <x:mergeCell ref="A101:A101"/>
+    <x:mergeCell ref="B101:B101"/>
+    <x:mergeCell ref="C101:C101"/>
+    <x:mergeCell ref="D101:D101"/>
+    <x:mergeCell ref="A102:A102"/>
+    <x:mergeCell ref="B102:B102"/>
+    <x:mergeCell ref="C102:C102"/>
+    <x:mergeCell ref="D102:D102"/>
+    <x:mergeCell ref="A103:A103"/>
+    <x:mergeCell ref="B103:B103"/>
+    <x:mergeCell ref="C103:C103"/>
+    <x:mergeCell ref="D103:D103"/>
+    <x:mergeCell ref="A104:A104"/>
+    <x:mergeCell ref="B104:B104"/>
+    <x:mergeCell ref="C104:C104"/>
+    <x:mergeCell ref="D104:D104"/>
+    <x:mergeCell ref="A105:A105"/>
+    <x:mergeCell ref="B105:B105"/>
+    <x:mergeCell ref="C105:C105"/>
+    <x:mergeCell ref="D105:D105"/>
+    <x:mergeCell ref="A106:A106"/>
+    <x:mergeCell ref="B106:B106"/>
+    <x:mergeCell ref="C106:C106"/>
+    <x:mergeCell ref="D106:D106"/>
+    <x:mergeCell ref="A107:A107"/>
+    <x:mergeCell ref="B107:B107"/>
+    <x:mergeCell ref="C107:C107"/>
+    <x:mergeCell ref="D107:D107"/>
+    <x:mergeCell ref="A108:A108"/>
+    <x:mergeCell ref="B108:B108"/>
+    <x:mergeCell ref="C108:C108"/>
+    <x:mergeCell ref="D108:D108"/>
+    <x:mergeCell ref="A109:A109"/>
+    <x:mergeCell ref="B109:B109"/>
+    <x:mergeCell ref="C109:C109"/>
+    <x:mergeCell ref="D109:D109"/>
+    <x:mergeCell ref="A110:A110"/>
+    <x:mergeCell ref="B110:B110"/>
+    <x:mergeCell ref="C110:C110"/>
+    <x:mergeCell ref="D110:D110"/>
+    <x:mergeCell ref="A111:A111"/>
+    <x:mergeCell ref="B111:B111"/>
+    <x:mergeCell ref="C111:C111"/>
+    <x:mergeCell ref="D111:D111"/>
+    <x:mergeCell ref="A112:A112"/>
+    <x:mergeCell ref="B112:B112"/>
+    <x:mergeCell ref="C112:C112"/>
+    <x:mergeCell ref="D112:D112"/>
+    <x:mergeCell ref="A113:A113"/>
+    <x:mergeCell ref="B113:B113"/>
+    <x:mergeCell ref="C113:C113"/>
+    <x:mergeCell ref="D113:D113"/>
+    <x:mergeCell ref="A114:A114"/>
+    <x:mergeCell ref="B114:B114"/>
+    <x:mergeCell ref="C114:C114"/>
+    <x:mergeCell ref="D114:D114"/>
+    <x:mergeCell ref="A115:A115"/>
+    <x:mergeCell ref="B115:B115"/>
+    <x:mergeCell ref="C115:C115"/>
+    <x:mergeCell ref="D115:D115"/>
+    <x:mergeCell ref="A116:A116"/>
+    <x:mergeCell ref="B116:B116"/>
+    <x:mergeCell ref="C116:C116"/>
+    <x:mergeCell ref="D116:D116"/>
+    <x:mergeCell ref="A117:A117"/>
+    <x:mergeCell ref="B117:B117"/>
+    <x:mergeCell ref="C117:C117"/>
+    <x:mergeCell ref="D117:D117"/>
+    <x:mergeCell ref="A118:A118"/>
+    <x:mergeCell ref="B118:B118"/>
+    <x:mergeCell ref="C118:C118"/>
+    <x:mergeCell ref="D118:D118"/>
+    <x:mergeCell ref="A119:A119"/>
+    <x:mergeCell ref="B119:B119"/>
+    <x:mergeCell ref="C119:C119"/>
+    <x:mergeCell ref="D119:D119"/>
+    <x:mergeCell ref="A120:A120"/>
+    <x:mergeCell ref="B120:B120"/>
+    <x:mergeCell ref="C120:C120"/>
+    <x:mergeCell ref="D120:D120"/>
+    <x:mergeCell ref="A121:A121"/>
+    <x:mergeCell ref="B121:B121"/>
+    <x:mergeCell ref="C121:C121"/>
+    <x:mergeCell ref="D121:D121"/>
+    <x:mergeCell ref="A122:A122"/>
+    <x:mergeCell ref="B122:B122"/>
+    <x:mergeCell ref="C122:C122"/>
+    <x:mergeCell ref="D122:D122"/>
+    <x:mergeCell ref="A123:A123"/>
+    <x:mergeCell ref="B123:B123"/>
+    <x:mergeCell ref="C123:C123"/>
+    <x:mergeCell ref="D123:D123"/>
+    <x:mergeCell ref="A124:A124"/>
+    <x:mergeCell ref="B124:B124"/>
+    <x:mergeCell ref="C124:C124"/>
+    <x:mergeCell ref="D124:D124"/>
+    <x:mergeCell ref="A125:A125"/>
+    <x:mergeCell ref="B125:B125"/>
+    <x:mergeCell ref="C125:C125"/>
+    <x:mergeCell ref="D125:D125"/>
+    <x:mergeCell ref="A126:A126"/>
+    <x:mergeCell ref="B126:B126"/>
+    <x:mergeCell ref="C126:C126"/>
+    <x:mergeCell ref="D126:D126"/>
+    <x:mergeCell ref="A127:A127"/>
+    <x:mergeCell ref="B127:B127"/>
+    <x:mergeCell ref="C127:C127"/>
+    <x:mergeCell ref="D127:D127"/>
+    <x:mergeCell ref="A128:A128"/>
+    <x:mergeCell ref="B128:B128"/>
+    <x:mergeCell ref="C128:C128"/>
+    <x:mergeCell ref="D128:D128"/>
+    <x:mergeCell ref="A129:A129"/>
+    <x:mergeCell ref="B129:B129"/>
+    <x:mergeCell ref="C129:C129"/>
+    <x:mergeCell ref="D129:D129"/>
+    <x:mergeCell ref="A130:A130"/>
+    <x:mergeCell ref="B130:B130"/>
+    <x:mergeCell ref="C130:C130"/>
+    <x:mergeCell ref="D130:D130"/>
+    <x:mergeCell ref="A131:A131"/>
+    <x:mergeCell ref="B131:B131"/>
+    <x:mergeCell ref="C131:C131"/>
+    <x:mergeCell ref="D131:D131"/>
+    <x:mergeCell ref="A132:A132"/>
+    <x:mergeCell ref="B132:B132"/>
+    <x:mergeCell ref="C132:C132"/>
+    <x:mergeCell ref="D132:D132"/>
+    <x:mergeCell ref="A133:A133"/>
+    <x:mergeCell ref="B133:B133"/>
+    <x:mergeCell ref="C133:C133"/>
+    <x:mergeCell ref="D133:D133"/>
+    <x:mergeCell ref="A134:A134"/>
+    <x:mergeCell ref="B134:B134"/>
+    <x:mergeCell ref="C134:C134"/>
+    <x:mergeCell ref="D134:D134"/>
+    <x:mergeCell ref="A135:A135"/>
+    <x:mergeCell ref="B135:B135"/>
+    <x:mergeCell ref="C135:C135"/>
+    <x:mergeCell ref="D135:D135"/>
+    <x:mergeCell ref="A136:A136"/>
+    <x:mergeCell ref="B136:B136"/>
+    <x:mergeCell ref="C136:C136"/>
+    <x:mergeCell ref="D136:D136"/>
+    <x:mergeCell ref="A137:A137"/>
+    <x:mergeCell ref="B137:B137"/>
+    <x:mergeCell ref="C137:C137"/>
+    <x:mergeCell ref="D137:D137"/>
+    <x:mergeCell ref="A138:A138"/>
+    <x:mergeCell ref="B138:B138"/>
+    <x:mergeCell ref="C138:C138"/>
+    <x:mergeCell ref="D138:D138"/>
+    <x:mergeCell ref="A139:A139"/>
+    <x:mergeCell ref="B139:B139"/>
+    <x:mergeCell ref="C139:C139"/>
+    <x:mergeCell ref="D139:D139"/>
+    <x:mergeCell ref="A140:A140"/>
+    <x:mergeCell ref="B140:B140"/>
+    <x:mergeCell ref="C140:C140"/>
+    <x:mergeCell ref="D140:D140"/>
+    <x:mergeCell ref="A141:A141"/>
+    <x:mergeCell ref="B141:B141"/>
+    <x:mergeCell ref="C141:C141"/>
+    <x:mergeCell ref="D141:D141"/>
+    <x:mergeCell ref="A142:A142"/>
+    <x:mergeCell ref="B142:B142"/>
+    <x:mergeCell ref="C142:C142"/>
+    <x:mergeCell ref="D142:D142"/>
+    <x:mergeCell ref="A143:A143"/>
+    <x:mergeCell ref="B143:B143"/>
+    <x:mergeCell ref="C143:C143"/>
+    <x:mergeCell ref="D143:D143"/>
+    <x:mergeCell ref="A144:A144"/>
+    <x:mergeCell ref="B144:B144"/>
+    <x:mergeCell ref="C144:C144"/>
+    <x:mergeCell ref="D144:D144"/>
+    <x:mergeCell ref="A145:A145"/>
+    <x:mergeCell ref="B145:B145"/>
+    <x:mergeCell ref="C145:C145"/>
+    <x:mergeCell ref="D145:D145"/>
+    <x:mergeCell ref="A146:A146"/>
+    <x:mergeCell ref="B146:B146"/>
+    <x:mergeCell ref="C146:C146"/>
+    <x:mergeCell ref="D146:D146"/>
+    <x:mergeCell ref="A147:A147"/>
+    <x:mergeCell ref="B147:B147"/>
+    <x:mergeCell ref="C147:C147"/>
+    <x:mergeCell ref="D147:D147"/>
+    <x:mergeCell ref="A148:A148"/>
+    <x:mergeCell ref="B148:B148"/>
+    <x:mergeCell ref="C148:C148"/>
+    <x:mergeCell ref="D148:D148"/>
+    <x:mergeCell ref="A149:A149"/>
+    <x:mergeCell ref="B149:B149"/>
+    <x:mergeCell ref="C149:C149"/>
+    <x:mergeCell ref="D149:D149"/>
+    <x:mergeCell ref="A150:A150"/>
+    <x:mergeCell ref="B150:B150"/>
+    <x:mergeCell ref="C150:C150"/>
+    <x:mergeCell ref="D150:D150"/>
+    <x:mergeCell ref="A151:A151"/>
+    <x:mergeCell ref="B151:B151"/>
+    <x:mergeCell ref="C151:C151"/>
+    <x:mergeCell ref="D151:D151"/>
+    <x:mergeCell ref="A152:A152"/>
+    <x:mergeCell ref="B152:B152"/>
+    <x:mergeCell ref="C152:C152"/>
+    <x:mergeCell ref="D152:D152"/>
+    <x:mergeCell ref="A153:A153"/>
+    <x:mergeCell ref="B153:B153"/>
+    <x:mergeCell ref="C153:C153"/>
+    <x:mergeCell ref="D153:D153"/>
+    <x:mergeCell ref="A154:A154"/>
+    <x:mergeCell ref="B154:B154"/>
+    <x:mergeCell ref="C154:C154"/>
+    <x:mergeCell ref="D154:D154"/>
+    <x:mergeCell ref="A155:A155"/>
+    <x:mergeCell ref="B155:B155"/>
+    <x:mergeCell ref="C155:C155"/>
+    <x:mergeCell ref="D155:D155"/>
+    <x:mergeCell ref="A156:A156"/>
+    <x:mergeCell ref="B156:B156"/>
+    <x:mergeCell ref="C156:C156"/>
+    <x:mergeCell ref="D156:D156"/>
+    <x:mergeCell ref="A157:A157"/>
+    <x:mergeCell ref="B157:B157"/>
+    <x:mergeCell ref="C157:C157"/>
+    <x:mergeCell ref="D157:D157"/>
+    <x:mergeCell ref="A158:A158"/>
+    <x:mergeCell ref="B158:B158"/>
+    <x:mergeCell ref="C158:C158"/>
+    <x:mergeCell ref="D158:D158"/>
+    <x:mergeCell ref="A159:A159"/>
+    <x:mergeCell ref="B159:B159"/>
+    <x:mergeCell ref="C159:C159"/>
+    <x:mergeCell ref="D159:D159"/>
+    <x:mergeCell ref="A160:A160"/>
+    <x:mergeCell ref="B160:B160"/>
+    <x:mergeCell ref="C160:C160"/>
+    <x:mergeCell ref="D160:D160"/>
+    <x:mergeCell ref="A161:A161"/>
+    <x:mergeCell ref="B161:B161"/>
+    <x:mergeCell ref="C161:C161"/>
+    <x:mergeCell ref="D161:D161"/>
+    <x:mergeCell ref="A162:A162"/>
+    <x:mergeCell ref="B162:B162"/>
+    <x:mergeCell ref="C162:C162"/>
+    <x:mergeCell ref="D162:D162"/>
+    <x:mergeCell ref="A163:A163"/>
+    <x:mergeCell ref="B163:B163"/>
+    <x:mergeCell ref="C163:C163"/>
+    <x:mergeCell ref="D163:D163"/>
+    <x:mergeCell ref="A164:A164"/>
+    <x:mergeCell ref="B164:B164"/>
+    <x:mergeCell ref="C164:C164"/>
+    <x:mergeCell ref="D164:D164"/>
+    <x:mergeCell ref="A165:A165"/>
+    <x:mergeCell ref="B165:B165"/>
+    <x:mergeCell ref="C165:C165"/>
+    <x:mergeCell ref="D165:D165"/>
+    <x:mergeCell ref="A166:A166"/>
+    <x:mergeCell ref="B166:B166"/>
+    <x:mergeCell ref="C166:C166"/>
+    <x:mergeCell ref="D166:D166"/>
+    <x:mergeCell ref="A167:A167"/>
+    <x:mergeCell ref="B167:B167"/>
+    <x:mergeCell ref="C167:C167"/>
+    <x:mergeCell ref="D167:D167"/>
+    <x:mergeCell ref="A168:A168"/>
+    <x:mergeCell ref="B168:B168"/>
+    <x:mergeCell ref="C168:C168"/>
+    <x:mergeCell ref="D168:D168"/>
+    <x:mergeCell ref="A169:A169"/>
+    <x:mergeCell ref="B169:B169"/>
+    <x:mergeCell ref="C169:C169"/>
+    <x:mergeCell ref="D169:D169"/>
+    <x:mergeCell ref="A170:A170"/>
+    <x:mergeCell ref="B170:B170"/>
+    <x:mergeCell ref="C170:C170"/>
+    <x:mergeCell ref="D170:D170"/>
+    <x:mergeCell ref="A171:A171"/>
+    <x:mergeCell ref="B171:B171"/>
+    <x:mergeCell ref="C171:C171"/>
+    <x:mergeCell ref="D171:D171"/>
+    <x:mergeCell ref="A172:A172"/>
+    <x:mergeCell ref="B172:B172"/>
+    <x:mergeCell ref="C172:C172"/>
+    <x:mergeCell ref="D172:D172"/>
+    <x:mergeCell ref="A173:A173"/>
+    <x:mergeCell ref="B173:B173"/>
+    <x:mergeCell ref="C173:C173"/>
+    <x:mergeCell ref="D173:D173"/>
+    <x:mergeCell ref="A174:A174"/>
+    <x:mergeCell ref="B174:B174"/>
+    <x:mergeCell ref="C174:C174"/>
+    <x:mergeCell ref="D174:D174"/>
+    <x:mergeCell ref="A175:A175"/>
+    <x:mergeCell ref="B175:B175"/>
+    <x:mergeCell ref="C175:C175"/>
+    <x:mergeCell ref="D175:D175"/>
+    <x:mergeCell ref="A176:A176"/>
+    <x:mergeCell ref="B176:B176"/>
+    <x:mergeCell ref="C176:C176"/>
+    <x:mergeCell ref="D176:D176"/>
+    <x:mergeCell ref="A177:A177"/>
+    <x:mergeCell ref="B177:B177"/>
+    <x:mergeCell ref="C177:C177"/>
+    <x:mergeCell ref="D177:D177"/>
+    <x:mergeCell ref="A178:A178"/>
+    <x:mergeCell ref="B178:B178"/>
+    <x:mergeCell ref="C178:C178"/>
+    <x:mergeCell ref="D178:D178"/>
+    <x:mergeCell ref="A179:A179"/>
+    <x:mergeCell ref="B179:B179"/>
+    <x:mergeCell ref="C179:C179"/>
+    <x:mergeCell ref="D179:D179"/>
+    <x:mergeCell ref="A180:A180"/>
+    <x:mergeCell ref="B180:B180"/>
+    <x:mergeCell ref="C180:C180"/>
+    <x:mergeCell ref="D180:D180"/>
+    <x:mergeCell ref="A181:A181"/>
+    <x:mergeCell ref="B181:B181"/>
+    <x:mergeCell ref="C181:C181"/>
+    <x:mergeCell ref="D181:D181"/>
+    <x:mergeCell ref="A182:A182"/>
+    <x:mergeCell ref="B182:B182"/>
+    <x:mergeCell ref="C182:C182"/>
+    <x:mergeCell ref="D182:D182"/>
+    <x:mergeCell ref="A183:A183"/>
+    <x:mergeCell ref="B183:B183"/>
+    <x:mergeCell ref="C183:C183"/>
+    <x:mergeCell ref="D183:D183"/>
+    <x:mergeCell ref="A184:A184"/>
+    <x:mergeCell ref="B184:B184"/>
+    <x:mergeCell ref="C184:C184"/>
+    <x:mergeCell ref="D184:D184"/>
+    <x:mergeCell ref="A185:A185"/>
+    <x:mergeCell ref="B185:B185"/>
+    <x:mergeCell ref="C185:C185"/>
+    <x:mergeCell ref="D185:D185"/>
+    <x:mergeCell ref="A186:A186"/>
+    <x:mergeCell ref="B186:B186"/>
+    <x:mergeCell ref="C186:C186"/>
+    <x:mergeCell ref="D186:D186"/>
+    <x:mergeCell ref="A187:A187"/>
+    <x:mergeCell ref="B187:B187"/>
+    <x:mergeCell ref="C187:C187"/>
+    <x:mergeCell ref="D187:D187"/>
+    <x:mergeCell ref="A188:A188"/>
+    <x:mergeCell ref="B188:B188"/>
+    <x:mergeCell ref="C188:C188"/>
+    <x:mergeCell ref="D188:D188"/>
+    <x:mergeCell ref="A189:A189"/>
+    <x:mergeCell ref="B189:B189"/>
+    <x:mergeCell ref="C189:C189"/>
+    <x:mergeCell ref="D189:D189"/>
+    <x:mergeCell ref="A190:A190"/>
+    <x:mergeCell ref="B190:B190"/>
+    <x:mergeCell ref="C190:C190"/>
+    <x:mergeCell ref="D190:D190"/>
+    <x:mergeCell ref="A191:A191"/>
+    <x:mergeCell ref="B191:B191"/>
+    <x:mergeCell ref="C191:C191"/>
+    <x:mergeCell ref="D191:D191"/>
+    <x:mergeCell ref="A192:A192"/>
+    <x:mergeCell ref="B192:B192"/>
+    <x:mergeCell ref="C192:C192"/>
+    <x:mergeCell ref="D192:D192"/>
+    <x:mergeCell ref="A193:A193"/>
+    <x:mergeCell ref="B193:B193"/>
+    <x:mergeCell ref="C193:C193"/>
+    <x:mergeCell ref="D193:D193"/>
+    <x:mergeCell ref="A194:A194"/>
+    <x:mergeCell ref="B194:B194"/>
+    <x:mergeCell ref="C194:C194"/>
+    <x:mergeCell ref="D194:D194"/>
+    <x:mergeCell ref="A195:A195"/>
+    <x:mergeCell ref="B195:B195"/>
+    <x:mergeCell ref="C195:C195"/>
+    <x:mergeCell ref="D195:D195"/>
+    <x:mergeCell ref="A196:A196"/>
+    <x:mergeCell ref="B196:B196"/>
+    <x:mergeCell ref="C196:C196"/>
+    <x:mergeCell ref="D196:D196"/>
+    <x:mergeCell ref="A197:A197"/>
+    <x:mergeCell ref="B197:B197"/>
+    <x:mergeCell ref="C197:C197"/>
+    <x:mergeCell ref="D197:D197"/>
+    <x:mergeCell ref="A198:A198"/>
+    <x:mergeCell ref="B198:B198"/>
+    <x:mergeCell ref="C198:C198"/>
+    <x:mergeCell ref="D198:D198"/>
+    <x:mergeCell ref="A199:A199"/>
+    <x:mergeCell ref="B199:B199"/>
+    <x:mergeCell ref="C199:C199"/>
+    <x:mergeCell ref="D199:D199"/>
+    <x:mergeCell ref="A200:A200"/>
+    <x:mergeCell ref="B200:B200"/>
+    <x:mergeCell ref="C200:C200"/>
+    <x:mergeCell ref="D200:D200"/>
+    <x:mergeCell ref="A201:A201"/>
+    <x:mergeCell ref="B201:B201"/>
+    <x:mergeCell ref="C201:C201"/>
+    <x:mergeCell ref="D201:D201"/>
+    <x:mergeCell ref="A202:A202"/>
+    <x:mergeCell ref="B202:B202"/>
+    <x:mergeCell ref="C202:C202"/>
+    <x:mergeCell ref="D202:D202"/>
+    <x:mergeCell ref="A203:A203"/>
+    <x:mergeCell ref="B203:B203"/>
+    <x:mergeCell ref="C203:C203"/>
+    <x:mergeCell ref="D203:D203"/>
+    <x:mergeCell ref="A204:A204"/>
+    <x:mergeCell ref="B204:B204"/>
+    <x:mergeCell ref="C204:C204"/>
+    <x:mergeCell ref="D204:D204"/>
+    <x:mergeCell ref="A205:A205"/>
+    <x:mergeCell ref="B205:B205"/>
+    <x:mergeCell ref="C205:C205"/>
+    <x:mergeCell ref="D205:D205"/>
+    <x:mergeCell ref="A206:A206"/>
+    <x:mergeCell ref="B206:B206"/>
+    <x:mergeCell ref="C206:C206"/>
+    <x:mergeCell ref="D206:D206"/>
+    <x:mergeCell ref="A207:A207"/>
+    <x:mergeCell ref="B207:B207"/>
+    <x:mergeCell ref="C207:C207"/>
+    <x:mergeCell ref="D207:D207"/>
+    <x:mergeCell ref="A208:A208"/>
+    <x:mergeCell ref="B208:B208"/>
+    <x:mergeCell ref="C208:C208"/>
+    <x:mergeCell ref="D208:D208"/>
+    <x:mergeCell ref="A209:A209"/>
+    <x:mergeCell ref="B209:B209"/>
+    <x:mergeCell ref="C209:C209"/>
+    <x:mergeCell ref="D209:D209"/>
+    <x:mergeCell ref="A210:A210"/>
+    <x:mergeCell ref="B210:B210"/>
+    <x:mergeCell ref="C210:C210"/>
+    <x:mergeCell ref="D210:D210"/>
+    <x:mergeCell ref="A211:A211"/>
+    <x:mergeCell ref="B211:B211"/>
+    <x:mergeCell ref="C211:C211"/>
+    <x:mergeCell ref="D211:D211"/>
+    <x:mergeCell ref="A212:A212"/>
+    <x:mergeCell ref="B212:B212"/>
+    <x:mergeCell ref="C212:C212"/>
+    <x:mergeCell ref="D212:D212"/>
+    <x:mergeCell ref="A213:A213"/>
+    <x:mergeCell ref="B213:B213"/>
+    <x:mergeCell ref="C213:C213"/>
+    <x:mergeCell ref="D213:D213"/>
+    <x:mergeCell ref="A214:A214"/>
+    <x:mergeCell ref="B214:B214"/>
+    <x:mergeCell ref="C214:C214"/>
+    <x:mergeCell ref="D214:D214"/>
+    <x:mergeCell ref="A215:A215"/>
+    <x:mergeCell ref="B215:B215"/>
+    <x:mergeCell ref="C215:C215"/>
+    <x:mergeCell ref="D215:D215"/>
+    <x:mergeCell ref="A216:A216"/>
+    <x:mergeCell ref="B216:B216"/>
+    <x:mergeCell ref="C216:C216"/>
+    <x:mergeCell ref="D216:D216"/>
+    <x:mergeCell ref="A217:A217"/>
+    <x:mergeCell ref="B217:B217"/>
+    <x:mergeCell ref="C217:C217"/>
+    <x:mergeCell ref="D217:D217"/>
+    <x:mergeCell ref="A218:A218"/>
+    <x:mergeCell ref="B218:B218"/>
+    <x:mergeCell ref="C218:C218"/>
+    <x:mergeCell ref="D218:D218"/>
+    <x:mergeCell ref="A219:A219"/>
+    <x:mergeCell ref="B219:B219"/>
+    <x:mergeCell ref="C219:C219"/>
+    <x:mergeCell ref="D219:D219"/>
+    <x:mergeCell ref="A220:A220"/>
+    <x:mergeCell ref="B220:B220"/>
+    <x:mergeCell ref="C220:C220"/>
+    <x:mergeCell ref="D220:D220"/>
+    <x:mergeCell ref="A221:A221"/>
+    <x:mergeCell ref="B221:B221"/>
+    <x:mergeCell ref="C221:C221"/>
+    <x:mergeCell ref="D221:D221"/>
+    <x:mergeCell ref="A222:A222"/>
+    <x:mergeCell ref="B222:B222"/>
+    <x:mergeCell ref="C222:C222"/>
+    <x:mergeCell ref="D222:D222"/>
+    <x:mergeCell ref="A223:A223"/>
+    <x:mergeCell ref="B223:B223"/>
+    <x:mergeCell ref="C223:C223"/>
+    <x:mergeCell ref="D223:D223"/>
+    <x:mergeCell ref="A224:A224"/>
+    <x:mergeCell ref="B224:B224"/>
+    <x:mergeCell ref="C224:C224"/>
+    <x:mergeCell ref="D224:D224"/>
+    <x:mergeCell ref="A225:A225"/>
+    <x:mergeCell ref="B225:B225"/>
+    <x:mergeCell ref="C225:C225"/>
+    <x:mergeCell ref="D225:D225"/>
+    <x:mergeCell ref="A226:A226"/>
+    <x:mergeCell ref="B226:B226"/>
+    <x:mergeCell ref="C226:C226"/>
+    <x:mergeCell ref="D226:D226"/>
+    <x:mergeCell ref="A227:A227"/>
+    <x:mergeCell ref="B227:B227"/>
+    <x:mergeCell ref="C227:C227"/>
+    <x:mergeCell ref="D227:D227"/>
+    <x:mergeCell ref="A228:A228"/>
+    <x:mergeCell ref="B228:B228"/>
+    <x:mergeCell ref="C228:C228"/>
+    <x:mergeCell ref="D228:D228"/>
+    <x:mergeCell ref="A229:A229"/>
+    <x:mergeCell ref="B229:B229"/>
+    <x:mergeCell ref="C229:C229"/>
+    <x:mergeCell ref="D229:D229"/>
+    <x:mergeCell ref="A230:A230"/>
+    <x:mergeCell ref="B230:B230"/>
+    <x:mergeCell ref="C230:C230"/>
+    <x:mergeCell ref="D230:D230"/>
+    <x:mergeCell ref="A231:A231"/>
+    <x:mergeCell ref="B231:B231"/>
+    <x:mergeCell ref="C231:C231"/>
+    <x:mergeCell ref="D231:D231"/>
+    <x:mergeCell ref="A232:A232"/>
+    <x:mergeCell ref="B232:B232"/>
+    <x:mergeCell ref="C232:C232"/>
+    <x:mergeCell ref="D232:D232"/>
+    <x:mergeCell ref="A233:A233"/>
+    <x:mergeCell ref="B233:B233"/>
+    <x:mergeCell ref="C233:C233"/>
+    <x:mergeCell ref="D233:D233"/>
+    <x:mergeCell ref="A234:A234"/>
+    <x:mergeCell ref="B234:B234"/>
+    <x:mergeCell ref="C234:C234"/>
+    <x:mergeCell ref="D234:D234"/>
+    <x:mergeCell ref="A235:A235"/>
+    <x:mergeCell ref="B235:B235"/>
+    <x:mergeCell ref="C235:C235"/>
+    <x:mergeCell ref="D235:D235"/>
+    <x:mergeCell ref="A236:A236"/>
+    <x:mergeCell ref="B236:B236"/>
+    <x:mergeCell ref="C236:C236"/>
+    <x:mergeCell ref="D236:D236"/>
+    <x:mergeCell ref="A237:A237"/>
+    <x:mergeCell ref="B237:B237"/>
+    <x:mergeCell ref="C237:C237"/>
+    <x:mergeCell ref="D237:D237"/>
+    <x:mergeCell ref="A238:A238"/>
+    <x:mergeCell ref="B238:B238"/>
+    <x:mergeCell ref="C238:C238"/>
+    <x:mergeCell ref="D238:D238"/>
+    <x:mergeCell ref="A239:A239"/>
+    <x:mergeCell ref="B239:B239"/>
+    <x:mergeCell ref="C239:C239"/>
+    <x:mergeCell ref="D239:D239"/>
+    <x:mergeCell ref="A240:A240"/>
+    <x:mergeCell ref="B240:B240"/>
+    <x:mergeCell ref="C240:C240"/>
+    <x:mergeCell ref="D240:D240"/>
+    <x:mergeCell ref="A241:A241"/>
+    <x:mergeCell ref="B241:B241"/>
+    <x:mergeCell ref="C241:C241"/>
+    <x:mergeCell ref="D241:D241"/>
+    <x:mergeCell ref="A242:A242"/>
+    <x:mergeCell ref="B242:B242"/>
+    <x:mergeCell ref="C242:C242"/>
+    <x:mergeCell ref="D242:D242"/>
+    <x:mergeCell ref="A243:A243"/>
+    <x:mergeCell ref="B243:B243"/>
+    <x:mergeCell ref="C243:C243"/>
+    <x:mergeCell ref="D243:D243"/>
+    <x:mergeCell ref="A244:A244"/>
+    <x:mergeCell ref="B244:B244"/>
+    <x:mergeCell ref="C244:C244"/>
+    <x:mergeCell ref="D244:D244"/>
+    <x:mergeCell ref="A245:A245"/>
+    <x:mergeCell ref="B245:B245"/>
+    <x:mergeCell ref="C245:C245"/>
+    <x:mergeCell ref="D245:D245"/>
+    <x:mergeCell ref="A246:A246"/>
+    <x:mergeCell ref="B246:B246"/>
+    <x:mergeCell ref="C246:C246"/>
+    <x:mergeCell ref="D246:D246"/>
+    <x:mergeCell ref="A247:A247"/>
+    <x:mergeCell ref="B247:B247"/>
+    <x:mergeCell ref="C247:C247"/>
+    <x:mergeCell ref="D247:D247"/>
+    <x:mergeCell ref="A248:A248"/>
+    <x:mergeCell ref="B248:B248"/>
+    <x:mergeCell ref="C248:C248"/>
+    <x:mergeCell ref="D248:D248"/>
+    <x:mergeCell ref="A249:A249"/>
+    <x:mergeCell ref="B249:B249"/>
+    <x:mergeCell ref="C249:C249"/>
+    <x:mergeCell ref="D249:D249"/>
+    <x:mergeCell ref="A250:A250"/>
+    <x:mergeCell ref="B250:B250"/>
+    <x:mergeCell ref="C250:C250"/>
+    <x:mergeCell ref="D250:D250"/>
+    <x:mergeCell ref="A251:A251"/>
+    <x:mergeCell ref="B251:B251"/>
+    <x:mergeCell ref="C251:C251"/>
+    <x:mergeCell ref="D251:D251"/>
+    <x:mergeCell ref="A252:A252"/>
+    <x:mergeCell ref="B252:B252"/>
+    <x:mergeCell ref="C252:C252"/>
+    <x:mergeCell ref="D252:D252"/>
+    <x:mergeCell ref="A253:A253"/>
+    <x:mergeCell ref="B253:B253"/>
+    <x:mergeCell ref="C253:C253"/>
+    <x:mergeCell ref="D253:D253"/>
+    <x:mergeCell ref="A254:A254"/>
+    <x:mergeCell ref="B254:B254"/>
+    <x:mergeCell ref="C254:C254"/>
+    <x:mergeCell ref="D254:D254"/>
+    <x:mergeCell ref="A255:A255"/>
+    <x:mergeCell ref="B255:B255"/>
+    <x:mergeCell ref="C255:C255"/>
+    <x:mergeCell ref="D255:D255"/>
+    <x:mergeCell ref="A256:A256"/>
+    <x:mergeCell ref="B256:B256"/>
+    <x:mergeCell ref="C256:C256"/>
+    <x:mergeCell ref="D256:D256"/>
+    <x:mergeCell ref="A257:A257"/>
+    <x:mergeCell ref="B257:B257"/>
+    <x:mergeCell ref="C257:C257"/>
+    <x:mergeCell ref="D257:D257"/>
+    <x:mergeCell ref="A258:A258"/>
+    <x:mergeCell ref="B258:B258"/>
+    <x:mergeCell ref="C258:C258"/>
+    <x:mergeCell ref="D258:D258"/>
+    <x:mergeCell ref="A259:A259"/>
+    <x:mergeCell ref="B259:B259"/>
+    <x:mergeCell ref="C259:C259"/>
+    <x:mergeCell ref="D259:D259"/>
+    <x:mergeCell ref="A260:A260"/>
+    <x:mergeCell ref="B260:B260"/>
+    <x:mergeCell ref="C260:C260"/>
+    <x:mergeCell ref="D260:D260"/>
+    <x:mergeCell ref="A261:A261"/>
+    <x:mergeCell ref="B261:B261"/>
+    <x:mergeCell ref="C261:C261"/>
+    <x:mergeCell ref="D261:D261"/>
+    <x:mergeCell ref="A262:A262"/>
+    <x:mergeCell ref="B262:B262"/>
+    <x:mergeCell ref="C262:C262"/>
+    <x:mergeCell ref="D262:D262"/>
+    <x:mergeCell ref="A263:A263"/>
+    <x:mergeCell ref="B263:B263"/>
+    <x:mergeCell ref="C263:C263"/>
+    <x:mergeCell ref="D263:D263"/>
+    <x:mergeCell ref="A264:A264"/>
+    <x:mergeCell ref="B264:B264"/>
+    <x:mergeCell ref="C264:C264"/>
+    <x:mergeCell ref="D264:D264"/>
+    <x:mergeCell ref="A265:A265"/>
+    <x:mergeCell ref="B265:B265"/>
+    <x:mergeCell ref="C265:C265"/>
+    <x:mergeCell ref="D265:D265"/>
+    <x:mergeCell ref="A266:A266"/>
+    <x:mergeCell ref="B266:B266"/>
+    <x:mergeCell ref="C266:C266"/>
+    <x:mergeCell ref="D266:D266"/>
+    <x:mergeCell ref="A267:A267"/>
+    <x:mergeCell ref="B267:B267"/>
+    <x:mergeCell ref="C267:C267"/>
+    <x:mergeCell ref="D267:D267"/>
+    <x:mergeCell ref="A268:A268"/>
+    <x:mergeCell ref="B268:B268"/>
+    <x:mergeCell ref="C268:C268"/>
+    <x:mergeCell ref="D268:D268"/>
+    <x:mergeCell ref="A269:A269"/>
+    <x:mergeCell ref="B269:B269"/>
+    <x:mergeCell ref="C269:C269"/>
+    <x:mergeCell ref="D269:D269"/>
+    <x:mergeCell ref="A270:A270"/>
+    <x:mergeCell ref="B270:B270"/>
+    <x:mergeCell ref="C270:C270"/>
+    <x:mergeCell ref="D270:D270"/>
+    <x:mergeCell ref="A271:A271"/>
+    <x:mergeCell ref="B271:B271"/>
+    <x:mergeCell ref="C271:C271"/>
+    <x:mergeCell ref="D271:D271"/>
+    <x:mergeCell ref="A272:A272"/>
+    <x:mergeCell ref="B272:B272"/>
+    <x:mergeCell ref="C272:C272"/>
+    <x:mergeCell ref="D272:D272"/>
+    <x:mergeCell ref="A273:A273"/>
+    <x:mergeCell ref="B273:B273"/>
+    <x:mergeCell ref="C273:C273"/>
+    <x:mergeCell ref="D273:D273"/>
+    <x:mergeCell ref="A274:A274"/>
+    <x:mergeCell ref="B274:B274"/>
+    <x:mergeCell ref="C274:C274"/>
+    <x:mergeCell ref="D274:D274"/>
+    <x:mergeCell ref="A275:A275"/>
+    <x:mergeCell ref="B275:B275"/>
+    <x:mergeCell ref="C275:C275"/>
+    <x:mergeCell ref="D275:D275"/>
+    <x:mergeCell ref="A276:A276"/>
+    <x:mergeCell ref="B276:B276"/>
+    <x:mergeCell ref="C276:C276"/>
+    <x:mergeCell ref="D276:D276"/>
+    <x:mergeCell ref="A277:A277"/>
+    <x:mergeCell ref="B277:B277"/>
+    <x:mergeCell ref="C277:C277"/>
+    <x:mergeCell ref="D277:D277"/>
+    <x:mergeCell ref="A278:A278"/>
+    <x:mergeCell ref="B278:B278"/>
+    <x:mergeCell ref="C278:C278"/>
+    <x:mergeCell ref="D278:D278"/>
+    <x:mergeCell ref="A279:A279"/>
+    <x:mergeCell ref="B279:B279"/>
+    <x:mergeCell ref="C279:C279"/>
+    <x:mergeCell ref="D279:D279"/>
+    <x:mergeCell ref="A280:A280"/>
+    <x:mergeCell ref="B280:B280"/>
+    <x:mergeCell ref="C280:C280"/>
+    <x:mergeCell ref="D280:D280"/>
+    <x:mergeCell ref="A281:A281"/>
+    <x:mergeCell ref="B281:B281"/>
+    <x:mergeCell ref="C281:C281"/>
+    <x:mergeCell ref="D281:D281"/>
+    <x:mergeCell ref="A282:A282"/>
+    <x:mergeCell ref="B282:B282"/>
+    <x:mergeCell ref="C282:C282"/>
+    <x:mergeCell ref="D282:D282"/>
+    <x:mergeCell ref="A283:A283"/>
+    <x:mergeCell ref="B283:B283"/>
+    <x:mergeCell ref="C283:C283"/>
+    <x:mergeCell ref="D283:D283"/>
+    <x:mergeCell ref="A284:A284"/>
+    <x:mergeCell ref="B284:B284"/>
+    <x:mergeCell ref="C284:C284"/>
+    <x:mergeCell ref="D284:D284"/>
+    <x:mergeCell ref="A285:A285"/>
+    <x:mergeCell ref="B285:B285"/>
+    <x:mergeCell ref="C285:C285"/>
+    <x:mergeCell ref="D285:D285"/>
+    <x:mergeCell ref="A286:A286"/>
+    <x:mergeCell ref="B286:B286"/>
+    <x:mergeCell ref="C286:C286"/>
+    <x:mergeCell ref="D286:D286"/>
+    <x:mergeCell ref="A287:A287"/>
+    <x:mergeCell ref="B287:B287"/>
+    <x:mergeCell ref="C287:C287"/>
+    <x:mergeCell ref="D287:D287"/>
+    <x:mergeCell ref="A288:A288"/>
+    <x:mergeCell ref="B288:B288"/>
+    <x:mergeCell ref="C288:C288"/>
+    <x:mergeCell ref="D288:D288"/>
+    <x:mergeCell ref="A289:A289"/>
+    <x:mergeCell ref="B289:B289"/>
+    <x:mergeCell ref="C289:C289"/>
+    <x:mergeCell ref="D289:D289"/>
+    <x:mergeCell ref="A290:A290"/>
+    <x:mergeCell ref="B290:B290"/>
+    <x:mergeCell ref="C290:C290"/>
+    <x:mergeCell ref="D290:D290"/>
+    <x:mergeCell ref="A291:A291"/>
+    <x:mergeCell ref="B291:B291"/>
+    <x:mergeCell ref="C291:C291"/>
+    <x:mergeCell ref="D291:D291"/>
+    <x:mergeCell ref="A293:C293"/>
+    <x:mergeCell ref="D293:D293"/>
+    <x:mergeCell ref="A294:C294"/>
+    <x:mergeCell ref="D294:D294"/>
+    <x:mergeCell ref="A295:C295"/>
+    <x:mergeCell ref="D295:D295"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/SalesApp/wwwroot/Reports/Internal_Report.xlsx
+++ b/SalesApp/wwwroot/Reports/Internal_Report.xlsx
@@ -464,7 +464,7 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D295"/>
+  <x:dimension ref="A1:D422"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3635,13 +3635,13 @@
     </x:row>
     <x:row r="227" spans="1:4">
       <x:c r="A227" s="3">
-        <x:v>45012</x:v>
+        <x:v>45013</x:v>
       </x:c>
       <x:c r="B227" s="4" t="n">
-        <x:v>2</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C227" s="4" t="n">
-        <x:v>24300</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="D227" s="4" t="n">
         <x:v>0</x:v>
@@ -3649,16 +3649,16 @@
     </x:row>
     <x:row r="228" spans="1:4">
       <x:c r="A228" s="3">
-        <x:v>45012</x:v>
+        <x:v>45013</x:v>
       </x:c>
       <x:c r="B228" s="4" t="n">
-        <x:v>2</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C228" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>25200</x:v>
       </x:c>
       <x:c r="D228" s="4" t="n">
-        <x:v>24300</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:4">
@@ -3666,10 +3666,10 @@
         <x:v>45013</x:v>
       </x:c>
       <x:c r="B229" s="4" t="n">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C229" s="4" t="n">
-        <x:v>900</x:v>
+        <x:v>26400</x:v>
       </x:c>
       <x:c r="D229" s="4" t="n">
         <x:v>0</x:v>
@@ -3677,41 +3677,41 @@
     </x:row>
     <x:row r="230" spans="1:4">
       <x:c r="A230" s="3">
-        <x:v>45013</x:v>
+        <x:v>45016</x:v>
       </x:c>
       <x:c r="B230" s="4" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C230" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D230" s="4" t="n">
-        <x:v>900</x:v>
+        <x:v>3600</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:4">
       <x:c r="A231" s="3">
-        <x:v>45013</x:v>
+        <x:v>45017</x:v>
       </x:c>
       <x:c r="B231" s="4" t="n">
-        <x:v>216</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C231" s="4" t="n">
-        <x:v>25200</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D231" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>70000</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:4">
       <x:c r="A232" s="3">
-        <x:v>45013</x:v>
+        <x:v>45021</x:v>
       </x:c>
       <x:c r="B232" s="4" t="n">
-        <x:v>216</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C232" s="4" t="n">
-        <x:v>26400</x:v>
+        <x:v>3500</x:v>
       </x:c>
       <x:c r="D232" s="4" t="n">
         <x:v>0</x:v>
@@ -3719,83 +3719,83 @@
     </x:row>
     <x:row r="233" spans="1:4">
       <x:c r="A233" s="3">
-        <x:v>45016</x:v>
+        <x:v>45023</x:v>
       </x:c>
       <x:c r="B233" s="4" t="n">
-        <x:v>218</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C233" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D233" s="4" t="n">
-        <x:v>3600</x:v>
+        <x:v>19350</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:4">
       <x:c r="A234" s="3">
-        <x:v>45017</x:v>
+        <x:v>45023</x:v>
       </x:c>
       <x:c r="B234" s="4" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C234" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>7000</x:v>
       </x:c>
       <x:c r="D234" s="4" t="n">
-        <x:v>70000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:4">
       <x:c r="A235" s="3">
-        <x:v>45019</x:v>
+        <x:v>45024</x:v>
       </x:c>
       <x:c r="B235" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C235" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>32436</x:v>
       </x:c>
       <x:c r="D235" s="4" t="n">
-        <x:v>14500</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:4">
       <x:c r="A236" s="3">
-        <x:v>45021</x:v>
+        <x:v>45024</x:v>
       </x:c>
       <x:c r="B236" s="4" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C236" s="4" t="n">
-        <x:v>3500</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D236" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:4">
       <x:c r="A237" s="3">
-        <x:v>45023</x:v>
+        <x:v>45026</x:v>
       </x:c>
       <x:c r="B237" s="4" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C237" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D237" s="4" t="n">
-        <x:v>19350</x:v>
+        <x:v>7500</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:4">
       <x:c r="A238" s="3">
-        <x:v>45023</x:v>
+        <x:v>45026</x:v>
       </x:c>
       <x:c r="B238" s="4" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C238" s="4" t="n">
-        <x:v>7000</x:v>
+        <x:v>20000</x:v>
       </x:c>
       <x:c r="D238" s="4" t="n">
         <x:v>0</x:v>
@@ -3803,13 +3803,13 @@
     </x:row>
     <x:row r="239" spans="1:4">
       <x:c r="A239" s="3">
-        <x:v>45024</x:v>
+        <x:v>45029</x:v>
       </x:c>
       <x:c r="B239" s="4" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C239" s="4" t="n">
-        <x:v>32436</x:v>
+        <x:v>18000</x:v>
       </x:c>
       <x:c r="D239" s="4" t="n">
         <x:v>0</x:v>
@@ -3817,41 +3817,41 @@
     </x:row>
     <x:row r="240" spans="1:4">
       <x:c r="A240" s="3">
-        <x:v>45024</x:v>
+        <x:v>45029</x:v>
       </x:c>
       <x:c r="B240" s="4" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C240" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D240" s="4" t="n">
-        <x:v>1</x:v>
+        <x:v>27000</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:4">
       <x:c r="A241" s="3">
-        <x:v>45026</x:v>
+        <x:v>45029</x:v>
       </x:c>
       <x:c r="B241" s="4" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C241" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>9200</x:v>
       </x:c>
       <x:c r="D241" s="4" t="n">
-        <x:v>7500</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:4">
       <x:c r="A242" s="3">
-        <x:v>45026</x:v>
+        <x:v>45029</x:v>
       </x:c>
       <x:c r="B242" s="4" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C242" s="4" t="n">
-        <x:v>20000</x:v>
+        <x:v>6000</x:v>
       </x:c>
       <x:c r="D242" s="4" t="n">
         <x:v>0</x:v>
@@ -3859,55 +3859,55 @@
     </x:row>
     <x:row r="243" spans="1:4">
       <x:c r="A243" s="3">
-        <x:v>45029</x:v>
+        <x:v>45030</x:v>
       </x:c>
       <x:c r="B243" s="4" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C243" s="4" t="n">
-        <x:v>18000</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D243" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>1800</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:4">
       <x:c r="A244" s="3">
-        <x:v>45029</x:v>
+        <x:v>45034</x:v>
       </x:c>
       <x:c r="B244" s="4" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C244" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D244" s="4" t="n">
-        <x:v>27000</x:v>
+        <x:v>13000</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:4">
       <x:c r="A245" s="3">
-        <x:v>45029</x:v>
+        <x:v>45034</x:v>
       </x:c>
       <x:c r="B245" s="4" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C245" s="4" t="n">
-        <x:v>9200</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D245" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>7900</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:4">
       <x:c r="A246" s="3">
-        <x:v>45029</x:v>
+        <x:v>45035</x:v>
       </x:c>
       <x:c r="B246" s="4" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C246" s="4" t="n">
-        <x:v>6000</x:v>
+        <x:v>26500</x:v>
       </x:c>
       <x:c r="D246" s="4" t="n">
         <x:v>0</x:v>
@@ -3915,55 +3915,55 @@
     </x:row>
     <x:row r="247" spans="1:4">
       <x:c r="A247" s="3">
-        <x:v>45030</x:v>
+        <x:v>45035</x:v>
       </x:c>
       <x:c r="B247" s="4" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C247" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D247" s="4" t="n">
-        <x:v>1800</x:v>
+        <x:v>9000</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:4">
       <x:c r="A248" s="3">
-        <x:v>45034</x:v>
+        <x:v>45043</x:v>
       </x:c>
       <x:c r="B248" s="4" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C248" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D248" s="4" t="n">
-        <x:v>13000</x:v>
+        <x:v>4000</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:4">
       <x:c r="A249" s="3">
-        <x:v>45034</x:v>
+        <x:v>45047</x:v>
       </x:c>
       <x:c r="B249" s="4" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C249" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>14258</x:v>
       </x:c>
       <x:c r="D249" s="4" t="n">
-        <x:v>7900</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:4">
       <x:c r="A250" s="3">
-        <x:v>45035</x:v>
+        <x:v>45048</x:v>
       </x:c>
       <x:c r="B250" s="4" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C250" s="4" t="n">
-        <x:v>26500</x:v>
+        <x:v>18000</x:v>
       </x:c>
       <x:c r="D250" s="4" t="n">
         <x:v>0</x:v>
@@ -3971,223 +3971,223 @@
     </x:row>
     <x:row r="251" spans="1:4">
       <x:c r="A251" s="3">
-        <x:v>45035</x:v>
+        <x:v>45051</x:v>
       </x:c>
       <x:c r="B251" s="4" t="n">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C251" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>35070</x:v>
       </x:c>
       <x:c r="D251" s="4" t="n">
-        <x:v>9000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:4">
       <x:c r="A252" s="3">
-        <x:v>45043</x:v>
+        <x:v>45053</x:v>
       </x:c>
       <x:c r="B252" s="4" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C252" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D252" s="4" t="n">
-        <x:v>4000</x:v>
+        <x:v>800</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:4">
       <x:c r="A253" s="3">
-        <x:v>45047</x:v>
+        <x:v>45061</x:v>
       </x:c>
       <x:c r="B253" s="4" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C253" s="4" t="n">
-        <x:v>14258</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D253" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>9056</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:4">
       <x:c r="A254" s="3">
-        <x:v>45048</x:v>
+        <x:v>45062</x:v>
       </x:c>
       <x:c r="B254" s="4" t="n">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C254" s="4" t="n">
-        <x:v>18000</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D254" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>2500</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:4">
       <x:c r="A255" s="3">
-        <x:v>45051</x:v>
+        <x:v>45062</x:v>
       </x:c>
       <x:c r="B255" s="4" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C255" s="4" t="n">
-        <x:v>35070</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D255" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>34000</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:4">
       <x:c r="A256" s="3">
-        <x:v>45053</x:v>
+        <x:v>45065</x:v>
       </x:c>
       <x:c r="B256" s="4" t="n">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C256" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>31458</x:v>
       </x:c>
       <x:c r="D256" s="4" t="n">
-        <x:v>800</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:4">
       <x:c r="A257" s="3">
-        <x:v>45061</x:v>
+        <x:v>45066</x:v>
       </x:c>
       <x:c r="B257" s="4" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C257" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D257" s="4" t="n">
-        <x:v>9056</x:v>
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:4">
       <x:c r="A258" s="3">
-        <x:v>45062</x:v>
+        <x:v>45066</x:v>
       </x:c>
       <x:c r="B258" s="4" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C258" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D258" s="4" t="n">
-        <x:v>2500</x:v>
+        <x:v>4849</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:4">
       <x:c r="A259" s="3">
-        <x:v>45062</x:v>
+        <x:v>45066</x:v>
       </x:c>
       <x:c r="B259" s="4" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C259" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>42500</x:v>
       </x:c>
       <x:c r="D259" s="4" t="n">
-        <x:v>34000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:4">
       <x:c r="A260" s="3">
-        <x:v>45065</x:v>
+        <x:v>45067</x:v>
       </x:c>
       <x:c r="B260" s="4" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C260" s="4" t="n">
-        <x:v>31458</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D260" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>2678</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:4">
       <x:c r="A261" s="3">
-        <x:v>45066</x:v>
+        <x:v>45068</x:v>
       </x:c>
       <x:c r="B261" s="4" t="n">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C261" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>11550</x:v>
       </x:c>
       <x:c r="D261" s="4" t="n">
-        <x:v>5000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:4">
       <x:c r="A262" s="3">
-        <x:v>45066</x:v>
+        <x:v>45068</x:v>
       </x:c>
       <x:c r="B262" s="4" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C262" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>11550</x:v>
       </x:c>
       <x:c r="D262" s="4" t="n">
-        <x:v>4849</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:4">
       <x:c r="A263" s="3">
-        <x:v>45066</x:v>
+        <x:v>45072</x:v>
       </x:c>
       <x:c r="B263" s="4" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C263" s="4" t="n">
-        <x:v>42500</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D263" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>1470</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:4">
       <x:c r="A264" s="3">
-        <x:v>45067</x:v>
+        <x:v>45075</x:v>
       </x:c>
       <x:c r="B264" s="4" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C264" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D264" s="4" t="n">
-        <x:v>2678</x:v>
+        <x:v>22312</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:4">
       <x:c r="A265" s="3">
-        <x:v>45068</x:v>
+        <x:v>45075</x:v>
       </x:c>
       <x:c r="B265" s="4" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C265" s="4" t="n">
-        <x:v>11550</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D265" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:4">
       <x:c r="A266" s="3">
-        <x:v>45068</x:v>
+        <x:v>45076</x:v>
       </x:c>
       <x:c r="B266" s="4" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C266" s="4" t="n">
-        <x:v>11550</x:v>
+        <x:v>45000</x:v>
       </x:c>
       <x:c r="D266" s="4" t="n">
         <x:v>0</x:v>
@@ -4195,55 +4195,55 @@
     </x:row>
     <x:row r="267" spans="1:4">
       <x:c r="A267" s="3">
-        <x:v>45072</x:v>
+        <x:v>45076</x:v>
       </x:c>
       <x:c r="B267" s="4" t="n">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C267" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>28724</x:v>
       </x:c>
       <x:c r="D267" s="4" t="n">
-        <x:v>1470</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:4">
       <x:c r="A268" s="3">
-        <x:v>45075</x:v>
+        <x:v>45077</x:v>
       </x:c>
       <x:c r="B268" s="4" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C268" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D268" s="4" t="n">
-        <x:v>22312</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:4">
       <x:c r="A269" s="3">
-        <x:v>45075</x:v>
+        <x:v>45077</x:v>
       </x:c>
       <x:c r="B269" s="4" t="n">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C269" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D269" s="4" t="n">
-        <x:v>168</x:v>
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:4">
       <x:c r="A270" s="3">
-        <x:v>45076</x:v>
+        <x:v>45077</x:v>
       </x:c>
       <x:c r="B270" s="4" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C270" s="4" t="n">
-        <x:v>45000</x:v>
+        <x:v>15000</x:v>
       </x:c>
       <x:c r="D270" s="4" t="n">
         <x:v>0</x:v>
@@ -4251,13 +4251,13 @@
     </x:row>
     <x:row r="271" spans="1:4">
       <x:c r="A271" s="3">
-        <x:v>45076</x:v>
+        <x:v>45082</x:v>
       </x:c>
       <x:c r="B271" s="4" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C271" s="4" t="n">
-        <x:v>28724</x:v>
+        <x:v>8400</x:v>
       </x:c>
       <x:c r="D271" s="4" t="n">
         <x:v>0</x:v>
@@ -4265,41 +4265,41 @@
     </x:row>
     <x:row r="272" spans="1:4">
       <x:c r="A272" s="3">
-        <x:v>45077</x:v>
+        <x:v>45083</x:v>
       </x:c>
       <x:c r="B272" s="4" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C272" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D272" s="4" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:4">
       <x:c r="A273" s="3">
-        <x:v>45077</x:v>
+        <x:v>45084</x:v>
       </x:c>
       <x:c r="B273" s="4" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C273" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>384300</x:v>
       </x:c>
       <x:c r="D273" s="4" t="n">
-        <x:v>5000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:4">
       <x:c r="A274" s="3">
-        <x:v>45077</x:v>
+        <x:v>45090</x:v>
       </x:c>
       <x:c r="B274" s="4" t="n">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C274" s="4" t="n">
-        <x:v>15000</x:v>
+        <x:v>6300</x:v>
       </x:c>
       <x:c r="D274" s="4" t="n">
         <x:v>0</x:v>
@@ -4307,24 +4307,24 @@
     </x:row>
     <x:row r="275" spans="1:4">
       <x:c r="A275" s="3">
-        <x:v>45082</x:v>
+        <x:v>45090</x:v>
       </x:c>
       <x:c r="B275" s="4" t="n">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C275" s="4" t="n">
-        <x:v>8400</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D275" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:4">
       <x:c r="A276" s="3">
-        <x:v>45083</x:v>
+        <x:v>45092</x:v>
       </x:c>
       <x:c r="B276" s="4" t="n">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C276" s="4" t="n">
         <x:v>0</x:v>
@@ -4335,13 +4335,13 @@
     </x:row>
     <x:row r="277" spans="1:4">
       <x:c r="A277" s="3">
-        <x:v>45084</x:v>
+        <x:v>45092</x:v>
       </x:c>
       <x:c r="B277" s="4" t="n">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C277" s="4" t="n">
-        <x:v>384300</x:v>
+        <x:v>28350</x:v>
       </x:c>
       <x:c r="D277" s="4" t="n">
         <x:v>0</x:v>
@@ -4349,13 +4349,13 @@
     </x:row>
     <x:row r="278" spans="1:4">
       <x:c r="A278" s="3">
-        <x:v>45090</x:v>
+        <x:v>45092</x:v>
       </x:c>
       <x:c r="B278" s="4" t="n">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C278" s="4" t="n">
-        <x:v>6300</x:v>
+        <x:v>96649</x:v>
       </x:c>
       <x:c r="D278" s="4" t="n">
         <x:v>0</x:v>
@@ -4363,41 +4363,41 @@
     </x:row>
     <x:row r="279" spans="1:4">
       <x:c r="A279" s="3">
-        <x:v>45090</x:v>
+        <x:v>45093</x:v>
       </x:c>
       <x:c r="B279" s="4" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C279" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>8820</x:v>
       </x:c>
       <x:c r="D279" s="4" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:4">
       <x:c r="A280" s="3">
-        <x:v>45092</x:v>
+        <x:v>45097</x:v>
       </x:c>
       <x:c r="B280" s="4" t="n">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C280" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>11760</x:v>
       </x:c>
       <x:c r="D280" s="4" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:4">
       <x:c r="A281" s="3">
-        <x:v>45092</x:v>
+        <x:v>45098</x:v>
       </x:c>
       <x:c r="B281" s="4" t="n">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C281" s="4" t="n">
-        <x:v>28350</x:v>
+        <x:v>10000</x:v>
       </x:c>
       <x:c r="D281" s="4" t="n">
         <x:v>0</x:v>
@@ -4405,41 +4405,41 @@
     </x:row>
     <x:row r="282" spans="1:4">
       <x:c r="A282" s="3">
-        <x:v>45092</x:v>
+        <x:v>45098</x:v>
       </x:c>
       <x:c r="B282" s="4" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C282" s="4" t="n">
-        <x:v>96649</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D282" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>9180</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:4">
       <x:c r="A283" s="3">
-        <x:v>45093</x:v>
+        <x:v>45099</x:v>
       </x:c>
       <x:c r="B283" s="4" t="n">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C283" s="4" t="n">
-        <x:v>8820</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D283" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:4">
       <x:c r="A284" s="3">
-        <x:v>45097</x:v>
+        <x:v>45099</x:v>
       </x:c>
       <x:c r="B284" s="4" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C284" s="4" t="n">
-        <x:v>11760</x:v>
+        <x:v>94353</x:v>
       </x:c>
       <x:c r="D284" s="4" t="n">
         <x:v>0</x:v>
@@ -4447,13 +4447,13 @@
     </x:row>
     <x:row r="285" spans="1:4">
       <x:c r="A285" s="3">
-        <x:v>45098</x:v>
+        <x:v>45103</x:v>
       </x:c>
       <x:c r="B285" s="4" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C285" s="4" t="n">
-        <x:v>10000</x:v>
+        <x:v>15000</x:v>
       </x:c>
       <x:c r="D285" s="4" t="n">
         <x:v>0</x:v>
@@ -4461,41 +4461,41 @@
     </x:row>
     <x:row r="286" spans="1:4">
       <x:c r="A286" s="3">
-        <x:v>45098</x:v>
+        <x:v>45103</x:v>
       </x:c>
       <x:c r="B286" s="4" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C286" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>15000</x:v>
       </x:c>
       <x:c r="D286" s="4" t="n">
-        <x:v>9180</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:4">
       <x:c r="A287" s="3">
-        <x:v>45099</x:v>
+        <x:v>45103</x:v>
       </x:c>
       <x:c r="B287" s="4" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C287" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D287" s="4" t="n">
-        <x:v>1</x:v>
+        <x:v>756</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:4">
       <x:c r="A288" s="3">
-        <x:v>45099</x:v>
+        <x:v>45104</x:v>
       </x:c>
       <x:c r="B288" s="4" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C288" s="4" t="n">
-        <x:v>94353</x:v>
+        <x:v>275000</x:v>
       </x:c>
       <x:c r="D288" s="4" t="n">
         <x:v>0</x:v>
@@ -4503,13 +4503,13 @@
     </x:row>
     <x:row r="289" spans="1:4">
       <x:c r="A289" s="3">
-        <x:v>45103</x:v>
+        <x:v>45104</x:v>
       </x:c>
       <x:c r="B289" s="4" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C289" s="4" t="n">
-        <x:v>15000</x:v>
+        <x:v>98106</x:v>
       </x:c>
       <x:c r="D289" s="4" t="n">
         <x:v>0</x:v>
@@ -4517,13 +4517,13 @@
     </x:row>
     <x:row r="290" spans="1:4">
       <x:c r="A290" s="3">
-        <x:v>45103</x:v>
+        <x:v>45105</x:v>
       </x:c>
       <x:c r="B290" s="4" t="n">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C290" s="4" t="n">
-        <x:v>15000</x:v>
+        <x:v>5355</x:v>
       </x:c>
       <x:c r="D290" s="4" t="n">
         <x:v>0</x:v>
@@ -4531,56 +4531,1834 @@
     </x:row>
     <x:row r="291" spans="1:4">
       <x:c r="A291" s="3">
-        <x:v>45103</x:v>
+        <x:v>45108</x:v>
       </x:c>
       <x:c r="B291" s="4" t="n">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C291" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>28002</x:v>
       </x:c>
       <x:c r="D291" s="4" t="n">
-        <x:v>756</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:4">
-      <x:c r="A292" s="5" t="s"/>
-      <x:c r="B292" s="5" t="s"/>
-      <x:c r="C292" s="5" t="s"/>
-      <x:c r="D292" s="5" t="s"/>
+      <x:c r="A292" s="3">
+        <x:v>45113</x:v>
+      </x:c>
+      <x:c r="B292" s="4" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C292" s="4" t="n">
+        <x:v>16502</x:v>
+      </x:c>
+      <x:c r="D292" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="293" spans="1:4">
-      <x:c r="A293" s="2" t="s">
+      <x:c r="A293" s="3">
+        <x:v>45121</x:v>
+      </x:c>
+      <x:c r="B293" s="4" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C293" s="4" t="n">
+        <x:v>26502</x:v>
+      </x:c>
+      <x:c r="D293" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:4">
+      <x:c r="A294" s="3">
+        <x:v>45128</x:v>
+      </x:c>
+      <x:c r="B294" s="4" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C294" s="4" t="n">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="D294" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:4">
+      <x:c r="A295" s="3">
+        <x:v>45128</x:v>
+      </x:c>
+      <x:c r="B295" s="4" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C295" s="4" t="n">
+        <x:v>6300</x:v>
+      </x:c>
+      <x:c r="D295" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:4">
+      <x:c r="A296" s="3">
+        <x:v>45128</x:v>
+      </x:c>
+      <x:c r="B296" s="4" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C296" s="4" t="n">
+        <x:v>56901</x:v>
+      </x:c>
+      <x:c r="D296" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297" spans="1:4">
+      <x:c r="A297" s="3">
+        <x:v>45129</x:v>
+      </x:c>
+      <x:c r="B297" s="4" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C297" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D297" s="4" t="n">
+        <x:v>21892</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="298" spans="1:4">
+      <x:c r="A298" s="3">
+        <x:v>45129</x:v>
+      </x:c>
+      <x:c r="B298" s="4" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C298" s="4" t="n">
+        <x:v>19372</x:v>
+      </x:c>
+      <x:c r="D298" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:4">
+      <x:c r="A299" s="3">
+        <x:v>45129</x:v>
+      </x:c>
+      <x:c r="B299" s="4" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C299" s="4" t="n">
+        <x:v>40004</x:v>
+      </x:c>
+      <x:c r="D299" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300" spans="1:4">
+      <x:c r="A300" s="3">
+        <x:v>45131</x:v>
+      </x:c>
+      <x:c r="B300" s="4" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C300" s="4" t="n">
+        <x:v>95498</x:v>
+      </x:c>
+      <x:c r="D300" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301" spans="1:4">
+      <x:c r="A301" s="3">
+        <x:v>45132</x:v>
+      </x:c>
+      <x:c r="B301" s="4" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C301" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D301" s="4" t="n">
+        <x:v>18002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:4">
+      <x:c r="A302" s="3">
+        <x:v>45136</x:v>
+      </x:c>
+      <x:c r="B302" s="4" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C302" s="4" t="n">
+        <x:v>82299</x:v>
+      </x:c>
+      <x:c r="D302" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="303" spans="1:4">
+      <x:c r="A303" s="3">
+        <x:v>45141</x:v>
+      </x:c>
+      <x:c r="B303" s="4" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C303" s="4" t="n">
+        <x:v>2800</x:v>
+      </x:c>
+      <x:c r="D303" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="304" spans="1:4">
+      <x:c r="A304" s="3">
+        <x:v>45148</x:v>
+      </x:c>
+      <x:c r="B304" s="4" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C304" s="4" t="n">
+        <x:v>20110</x:v>
+      </x:c>
+      <x:c r="D304" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305" spans="1:4">
+      <x:c r="A305" s="3">
+        <x:v>45148</x:v>
+      </x:c>
+      <x:c r="B305" s="4" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C305" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D305" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306" spans="1:4">
+      <x:c r="A306" s="3">
+        <x:v>45148</x:v>
+      </x:c>
+      <x:c r="B306" s="4" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C306" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D306" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="307" spans="1:4">
+      <x:c r="A307" s="3">
+        <x:v>45151</x:v>
+      </x:c>
+      <x:c r="B307" s="4" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C307" s="4" t="n">
+        <x:v>5355</x:v>
+      </x:c>
+      <x:c r="D307" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="308" spans="1:4">
+      <x:c r="A308" s="3">
+        <x:v>45155</x:v>
+      </x:c>
+      <x:c r="B308" s="4" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C308" s="4" t="n">
+        <x:v>9056</x:v>
+      </x:c>
+      <x:c r="D308" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="309" spans="1:4">
+      <x:c r="A309" s="3">
+        <x:v>45157</x:v>
+      </x:c>
+      <x:c r="B309" s="4" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C309" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D309" s="4" t="n">
+        <x:v>21892</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310" spans="1:4">
+      <x:c r="A310" s="3">
+        <x:v>45160</x:v>
+      </x:c>
+      <x:c r="B310" s="4" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C310" s="4" t="n">
+        <x:v>30000</x:v>
+      </x:c>
+      <x:c r="D310" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="311" spans="1:4">
+      <x:c r="A311" s="3">
+        <x:v>45160</x:v>
+      </x:c>
+      <x:c r="B311" s="4" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C311" s="4" t="n">
+        <x:v>588206</x:v>
+      </x:c>
+      <x:c r="D311" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="312" spans="1:4">
+      <x:c r="A312" s="3">
+        <x:v>45161</x:v>
+      </x:c>
+      <x:c r="B312" s="4" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C312" s="4" t="n">
+        <x:v>339472</x:v>
+      </x:c>
+      <x:c r="D312" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="313" spans="1:4">
+      <x:c r="A313" s="3">
+        <x:v>45163</x:v>
+      </x:c>
+      <x:c r="B313" s="4" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C313" s="4" t="n">
+        <x:v>7001</x:v>
+      </x:c>
+      <x:c r="D313" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="314" spans="1:4">
+      <x:c r="A314" s="3">
+        <x:v>45163</x:v>
+      </x:c>
+      <x:c r="B314" s="4" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C314" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D314" s="4" t="n">
+        <x:v>29003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315" spans="1:4">
+      <x:c r="A315" s="3">
+        <x:v>45163</x:v>
+      </x:c>
+      <x:c r="B315" s="4" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C315" s="4" t="n">
+        <x:v>9853</x:v>
+      </x:c>
+      <x:c r="D315" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="316" spans="1:4">
+      <x:c r="A316" s="3">
+        <x:v>45165</x:v>
+      </x:c>
+      <x:c r="B316" s="4" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C316" s="4" t="n">
+        <x:v>15540</x:v>
+      </x:c>
+      <x:c r="D316" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="317" spans="1:4">
+      <x:c r="A317" s="3">
+        <x:v>45167</x:v>
+      </x:c>
+      <x:c r="B317" s="4" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C317" s="4" t="n">
+        <x:v>23940</x:v>
+      </x:c>
+      <x:c r="D317" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318" spans="1:4">
+      <x:c r="A318" s="3">
+        <x:v>45167</x:v>
+      </x:c>
+      <x:c r="B318" s="4" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C318" s="4" t="n">
+        <x:v>63000</x:v>
+      </x:c>
+      <x:c r="D318" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319" spans="1:4">
+      <x:c r="A319" s="3">
+        <x:v>45171</x:v>
+      </x:c>
+      <x:c r="B319" s="4" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C319" s="4" t="n">
+        <x:v>53550</x:v>
+      </x:c>
+      <x:c r="D319" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="320" spans="1:4">
+      <x:c r="A320" s="3">
+        <x:v>45173</x:v>
+      </x:c>
+      <x:c r="B320" s="4" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C320" s="4" t="n">
+        <x:v>28800</x:v>
+      </x:c>
+      <x:c r="D320" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="321" spans="1:4">
+      <x:c r="A321" s="3">
+        <x:v>45174</x:v>
+      </x:c>
+      <x:c r="B321" s="4" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C321" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D321" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322" spans="1:4">
+      <x:c r="A322" s="3">
+        <x:v>45176</x:v>
+      </x:c>
+      <x:c r="B322" s="4" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C322" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D322" s="4" t="n">
+        <x:v>50000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323" spans="1:4">
+      <x:c r="A323" s="3">
+        <x:v>45176</x:v>
+      </x:c>
+      <x:c r="B323" s="4" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C323" s="4" t="n">
+        <x:v>75639</x:v>
+      </x:c>
+      <x:c r="D323" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="324" spans="1:4">
+      <x:c r="A324" s="3">
+        <x:v>45178</x:v>
+      </x:c>
+      <x:c r="B324" s="4" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C324" s="4" t="n">
+        <x:v>6300</x:v>
+      </x:c>
+      <x:c r="D324" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="325" spans="1:4">
+      <x:c r="A325" s="3">
+        <x:v>45178</x:v>
+      </x:c>
+      <x:c r="B325" s="4" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C325" s="4" t="n">
+        <x:v>18900</x:v>
+      </x:c>
+      <x:c r="D325" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:4">
+      <x:c r="A326" s="3">
+        <x:v>45180</x:v>
+      </x:c>
+      <x:c r="B326" s="4" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C326" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D326" s="4" t="n">
+        <x:v>62507</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:4">
+      <x:c r="A327" s="3">
+        <x:v>45182</x:v>
+      </x:c>
+      <x:c r="B327" s="4" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C327" s="4" t="n">
+        <x:v>160824</x:v>
+      </x:c>
+      <x:c r="D327" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328" spans="1:4">
+      <x:c r="A328" s="3">
+        <x:v>45182</x:v>
+      </x:c>
+      <x:c r="B328" s="4" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C328" s="4" t="n">
+        <x:v>169722</x:v>
+      </x:c>
+      <x:c r="D328" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329" spans="1:4">
+      <x:c r="A329" s="3">
+        <x:v>45183</x:v>
+      </x:c>
+      <x:c r="B329" s="4" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C329" s="4" t="n">
+        <x:v>17000</x:v>
+      </x:c>
+      <x:c r="D329" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:4">
+      <x:c r="A330" s="3">
+        <x:v>45183</x:v>
+      </x:c>
+      <x:c r="B330" s="4" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C330" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D330" s="4" t="n">
+        <x:v>2800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331" spans="1:4">
+      <x:c r="A331" s="3">
+        <x:v>45184</x:v>
+      </x:c>
+      <x:c r="B331" s="4" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C331" s="4" t="n">
+        <x:v>9986</x:v>
+      </x:c>
+      <x:c r="D331" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:4">
+      <x:c r="A332" s="3">
+        <x:v>45185</x:v>
+      </x:c>
+      <x:c r="B332" s="4" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C332" s="4" t="n">
+        <x:v>10901</x:v>
+      </x:c>
+      <x:c r="D332" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:4">
+      <x:c r="A333" s="3">
+        <x:v>45187</x:v>
+      </x:c>
+      <x:c r="B333" s="4" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C333" s="4" t="n">
+        <x:v>342263</x:v>
+      </x:c>
+      <x:c r="D333" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334" spans="1:4">
+      <x:c r="A334" s="3">
+        <x:v>45188</x:v>
+      </x:c>
+      <x:c r="B334" s="4" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C334" s="4" t="n">
+        <x:v>36439</x:v>
+      </x:c>
+      <x:c r="D334" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335" spans="1:4">
+      <x:c r="A335" s="3">
+        <x:v>45188</x:v>
+      </x:c>
+      <x:c r="B335" s="4" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C335" s="4" t="n">
+        <x:v>21866</x:v>
+      </x:c>
+      <x:c r="D335" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336" spans="1:4">
+      <x:c r="A336" s="3">
+        <x:v>45189</x:v>
+      </x:c>
+      <x:c r="B336" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C336" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D336" s="4" t="n">
+        <x:v>2800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337" spans="1:4">
+      <x:c r="A337" s="3">
+        <x:v>45189</x:v>
+      </x:c>
+      <x:c r="B337" s="4" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C337" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D337" s="4" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="338" spans="1:4">
+      <x:c r="A338" s="3">
+        <x:v>45191</x:v>
+      </x:c>
+      <x:c r="B338" s="4" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C338" s="4" t="n">
+        <x:v>2520</x:v>
+      </x:c>
+      <x:c r="D338" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="339" spans="1:4">
+      <x:c r="A339" s="3">
+        <x:v>45192</x:v>
+      </x:c>
+      <x:c r="B339" s="4" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C339" s="4" t="n">
+        <x:v>418997</x:v>
+      </x:c>
+      <x:c r="D339" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340" spans="1:4">
+      <x:c r="A340" s="3">
+        <x:v>45194</x:v>
+      </x:c>
+      <x:c r="B340" s="4" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C340" s="4" t="n">
+        <x:v>35999</x:v>
+      </x:c>
+      <x:c r="D340" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="341" spans="1:4">
+      <x:c r="A341" s="3">
+        <x:v>45198</x:v>
+      </x:c>
+      <x:c r="B341" s="4" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C341" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D341" s="4" t="n">
+        <x:v>21001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="342" spans="1:4">
+      <x:c r="A342" s="3">
+        <x:v>45205</x:v>
+      </x:c>
+      <x:c r="B342" s="4" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C342" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D342" s="4" t="n">
+        <x:v>17850</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343" spans="1:4">
+      <x:c r="A343" s="3">
+        <x:v>45205</x:v>
+      </x:c>
+      <x:c r="B343" s="4" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C343" s="4" t="n">
+        <x:v>18112</x:v>
+      </x:c>
+      <x:c r="D343" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344" spans="1:4">
+      <x:c r="A344" s="3">
+        <x:v>45206</x:v>
+      </x:c>
+      <x:c r="B344" s="4" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C344" s="4" t="n">
+        <x:v>17076</x:v>
+      </x:c>
+      <x:c r="D344" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="345" spans="1:4">
+      <x:c r="A345" s="3">
+        <x:v>45208</x:v>
+      </x:c>
+      <x:c r="B345" s="4" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C345" s="4" t="n">
+        <x:v>27825</x:v>
+      </x:c>
+      <x:c r="D345" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346" spans="1:4">
+      <x:c r="A346" s="3">
+        <x:v>45208</x:v>
+      </x:c>
+      <x:c r="B346" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C346" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D346" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347" spans="1:4">
+      <x:c r="A347" s="3">
+        <x:v>45209</x:v>
+      </x:c>
+      <x:c r="B347" s="4" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C347" s="4" t="n">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c r="D347" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348" spans="1:4">
+      <x:c r="A348" s="3">
+        <x:v>45209</x:v>
+      </x:c>
+      <x:c r="B348" s="4" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C348" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D348" s="4" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349" spans="1:4">
+      <x:c r="A349" s="3">
+        <x:v>45210</x:v>
+      </x:c>
+      <x:c r="B349" s="4" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C349" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D349" s="4" t="n">
+        <x:v>4200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="350" spans="1:4">
+      <x:c r="A350" s="3">
+        <x:v>45211</x:v>
+      </x:c>
+      <x:c r="B350" s="4" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C350" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D350" s="4" t="n">
+        <x:v>10001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351" spans="1:4">
+      <x:c r="A351" s="3">
+        <x:v>45212</x:v>
+      </x:c>
+      <x:c r="B351" s="4" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C351" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D351" s="4" t="n">
+        <x:v>4725</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352" spans="1:4">
+      <x:c r="A352" s="3">
+        <x:v>45217</x:v>
+      </x:c>
+      <x:c r="B352" s="4" t="n">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C352" s="4" t="n">
+        <x:v>7000</x:v>
+      </x:c>
+      <x:c r="D352" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="353" spans="1:4">
+      <x:c r="A353" s="3">
+        <x:v>45220</x:v>
+      </x:c>
+      <x:c r="B353" s="4" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C353" s="4" t="n">
+        <x:v>19848</x:v>
+      </x:c>
+      <x:c r="D353" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="354" spans="1:4">
+      <x:c r="A354" s="3">
+        <x:v>45221</x:v>
+      </x:c>
+      <x:c r="B354" s="4" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C354" s="4" t="n">
+        <x:v>16002</x:v>
+      </x:c>
+      <x:c r="D354" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="355" spans="1:4">
+      <x:c r="A355" s="3">
+        <x:v>45222</x:v>
+      </x:c>
+      <x:c r="B355" s="4" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C355" s="4" t="n">
+        <x:v>19848</x:v>
+      </x:c>
+      <x:c r="D355" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="356" spans="1:4">
+      <x:c r="A356" s="3">
+        <x:v>45222</x:v>
+      </x:c>
+      <x:c r="B356" s="4" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C356" s="4" t="n">
+        <x:v>8001</x:v>
+      </x:c>
+      <x:c r="D356" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="357" spans="1:4">
+      <x:c r="A357" s="3">
+        <x:v>45222</x:v>
+      </x:c>
+      <x:c r="B357" s="4" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C357" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D357" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="358" spans="1:4">
+      <x:c r="A358" s="3">
+        <x:v>45222</x:v>
+      </x:c>
+      <x:c r="B358" s="4" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C358" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D358" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="359" spans="1:4">
+      <x:c r="A359" s="3">
+        <x:v>45223</x:v>
+      </x:c>
+      <x:c r="B359" s="4" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C359" s="4" t="n">
+        <x:v>4411</x:v>
+      </x:c>
+      <x:c r="D359" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="360" spans="1:4">
+      <x:c r="A360" s="3">
+        <x:v>45223</x:v>
+      </x:c>
+      <x:c r="B360" s="4" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C360" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D360" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="361" spans="1:4">
+      <x:c r="A361" s="3">
+        <x:v>45223</x:v>
+      </x:c>
+      <x:c r="B361" s="4" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C361" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D361" s="4" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="362" spans="1:4">
+      <x:c r="A362" s="3">
+        <x:v>45225</x:v>
+      </x:c>
+      <x:c r="B362" s="4" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C362" s="4" t="n">
+        <x:v>44100</x:v>
+      </x:c>
+      <x:c r="D362" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="363" spans="1:4">
+      <x:c r="A363" s="3">
+        <x:v>45225</x:v>
+      </x:c>
+      <x:c r="B363" s="4" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C363" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D363" s="4" t="n">
+        <x:v>8393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="364" spans="1:4">
+      <x:c r="A364" s="3">
+        <x:v>45227</x:v>
+      </x:c>
+      <x:c r="B364" s="4" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C364" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D364" s="4" t="n">
+        <x:v>1842</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="365" spans="1:4">
+      <x:c r="A365" s="3">
+        <x:v>45227</x:v>
+      </x:c>
+      <x:c r="B365" s="4" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C365" s="4" t="n">
+        <x:v>6983</x:v>
+      </x:c>
+      <x:c r="D365" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="366" spans="1:4">
+      <x:c r="A366" s="3">
+        <x:v>45227</x:v>
+      </x:c>
+      <x:c r="B366" s="4" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C366" s="4" t="n">
+        <x:v>33004</x:v>
+      </x:c>
+      <x:c r="D366" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="367" spans="1:4">
+      <x:c r="A367" s="3">
+        <x:v>45228</x:v>
+      </x:c>
+      <x:c r="B367" s="4" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C367" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D367" s="4" t="n">
+        <x:v>11002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="368" spans="1:4">
+      <x:c r="A368" s="3">
+        <x:v>45229</x:v>
+      </x:c>
+      <x:c r="B368" s="4" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C368" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D368" s="4" t="n">
+        <x:v>3054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="369" spans="1:4">
+      <x:c r="A369" s="3">
+        <x:v>45229</x:v>
+      </x:c>
+      <x:c r="B369" s="4" t="n">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C369" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D369" s="4" t="n">
+        <x:v>1755</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="370" spans="1:4">
+      <x:c r="A370" s="3">
+        <x:v>45230</x:v>
+      </x:c>
+      <x:c r="B370" s="4" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C370" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D370" s="4" t="n">
+        <x:v>25002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="371" spans="1:4">
+      <x:c r="A371" s="3">
+        <x:v>45231</x:v>
+      </x:c>
+      <x:c r="B371" s="4" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C371" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D371" s="4" t="n">
+        <x:v>8454</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="372" spans="1:4">
+      <x:c r="A372" s="3">
+        <x:v>45231</x:v>
+      </x:c>
+      <x:c r="B372" s="4" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C372" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D372" s="4" t="n">
+        <x:v>2600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="373" spans="1:4">
+      <x:c r="A373" s="3">
+        <x:v>45232</x:v>
+      </x:c>
+      <x:c r="B373" s="4" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C373" s="4" t="n">
+        <x:v>7351</x:v>
+      </x:c>
+      <x:c r="D373" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="374" spans="1:4">
+      <x:c r="A374" s="3">
+        <x:v>45233</x:v>
+      </x:c>
+      <x:c r="B374" s="4" t="n">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C374" s="4" t="n">
+        <x:v>12600</x:v>
+      </x:c>
+      <x:c r="D374" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="375" spans="1:4">
+      <x:c r="A375" s="3">
+        <x:v>45233</x:v>
+      </x:c>
+      <x:c r="B375" s="4" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C375" s="4" t="n">
+        <x:v>8454</x:v>
+      </x:c>
+      <x:c r="D375" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="376" spans="1:4">
+      <x:c r="A376" s="3">
+        <x:v>45233</x:v>
+      </x:c>
+      <x:c r="B376" s="4" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C376" s="4" t="n">
+        <x:v>2940</x:v>
+      </x:c>
+      <x:c r="D376" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="377" spans="1:4">
+      <x:c r="A377" s="3">
+        <x:v>45233</x:v>
+      </x:c>
+      <x:c r="B377" s="4" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C377" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D377" s="4" t="n">
+        <x:v>7993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="378" spans="1:4">
+      <x:c r="A378" s="3">
+        <x:v>45234</x:v>
+      </x:c>
+      <x:c r="B378" s="4" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C378" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D378" s="4" t="n">
+        <x:v>10002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="379" spans="1:4">
+      <x:c r="A379" s="3">
+        <x:v>45234</x:v>
+      </x:c>
+      <x:c r="B379" s="4" t="n">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C379" s="4" t="n">
+        <x:v>13001</x:v>
+      </x:c>
+      <x:c r="D379" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="380" spans="1:4">
+      <x:c r="A380" s="3">
+        <x:v>45237</x:v>
+      </x:c>
+      <x:c r="B380" s="4" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C380" s="4" t="n">
+        <x:v>10001</x:v>
+      </x:c>
+      <x:c r="D380" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="381" spans="1:4">
+      <x:c r="A381" s="3">
+        <x:v>45238</x:v>
+      </x:c>
+      <x:c r="B381" s="4" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C381" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D381" s="4" t="n">
+        <x:v>9001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="382" spans="1:4">
+      <x:c r="A382" s="3">
+        <x:v>45238</x:v>
+      </x:c>
+      <x:c r="B382" s="4" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C382" s="4" t="n">
+        <x:v>8453</x:v>
+      </x:c>
+      <x:c r="D382" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="383" spans="1:4">
+      <x:c r="A383" s="3">
+        <x:v>45239</x:v>
+      </x:c>
+      <x:c r="B383" s="4" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C383" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D383" s="4" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="384" spans="1:4">
+      <x:c r="A384" s="3">
+        <x:v>45239</x:v>
+      </x:c>
+      <x:c r="B384" s="4" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C384" s="4" t="n">
+        <x:v>20702</x:v>
+      </x:c>
+      <x:c r="D384" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="385" spans="1:4">
+      <x:c r="A385" s="3">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c r="B385" s="4" t="n">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C385" s="4" t="n">
+        <x:v>8401</x:v>
+      </x:c>
+      <x:c r="D385" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="386" spans="1:4">
+      <x:c r="A386" s="3">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c r="B386" s="4" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C386" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D386" s="4" t="n">
+        <x:v>8001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="387" spans="1:4">
+      <x:c r="A387" s="3">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c r="B387" s="4" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C387" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D387" s="4" t="n">
+        <x:v>112471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="388" spans="1:4">
+      <x:c r="A388" s="3">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c r="B388" s="4" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C388" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D388" s="4" t="n">
+        <x:v>60000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="389" spans="1:4">
+      <x:c r="A389" s="3">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c r="B389" s="4" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C389" s="4" t="n">
+        <x:v>32013</x:v>
+      </x:c>
+      <x:c r="D389" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="390" spans="1:4">
+      <x:c r="A390" s="3">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c r="B390" s="4" t="n">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C390" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D390" s="4" t="n">
+        <x:v>1300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="391" spans="1:4">
+      <x:c r="A391" s="3">
+        <x:v>45240</x:v>
+      </x:c>
+      <x:c r="B391" s="4" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C391" s="4" t="n">
+        <x:v>7501</x:v>
+      </x:c>
+      <x:c r="D391" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="392" spans="1:4">
+      <x:c r="A392" s="3">
+        <x:v>45241</x:v>
+      </x:c>
+      <x:c r="B392" s="4" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C392" s="4" t="n">
+        <x:v>14700</x:v>
+      </x:c>
+      <x:c r="D392" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="393" spans="1:4">
+      <x:c r="A393" s="3">
+        <x:v>45241</x:v>
+      </x:c>
+      <x:c r="B393" s="4" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C393" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D393" s="4" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="394" spans="1:4">
+      <x:c r="A394" s="3">
+        <x:v>45241</x:v>
+      </x:c>
+      <x:c r="B394" s="4" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C394" s="4" t="n">
+        <x:v>7001</x:v>
+      </x:c>
+      <x:c r="D394" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="395" spans="1:4">
+      <x:c r="A395" s="3">
+        <x:v>45244</x:v>
+      </x:c>
+      <x:c r="B395" s="4" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C395" s="4" t="n">
+        <x:v>5040</x:v>
+      </x:c>
+      <x:c r="D395" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="396" spans="1:4">
+      <x:c r="A396" s="3">
+        <x:v>45246</x:v>
+      </x:c>
+      <x:c r="B396" s="4" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C396" s="4" t="n">
+        <x:v>5512</x:v>
+      </x:c>
+      <x:c r="D396" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="397" spans="1:4">
+      <x:c r="A397" s="3">
+        <x:v>45246</x:v>
+      </x:c>
+      <x:c r="B397" s="4" t="n">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C397" s="4" t="n">
+        <x:v>7351</x:v>
+      </x:c>
+      <x:c r="D397" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="398" spans="1:4">
+      <x:c r="A398" s="3">
+        <x:v>45247</x:v>
+      </x:c>
+      <x:c r="B398" s="4" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C398" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D398" s="4" t="n">
+        <x:v>1742</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="399" spans="1:4">
+      <x:c r="A399" s="3">
+        <x:v>45247</x:v>
+      </x:c>
+      <x:c r="B399" s="4" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C399" s="4" t="n">
+        <x:v>38304</x:v>
+      </x:c>
+      <x:c r="D399" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="400" spans="1:4">
+      <x:c r="A400" s="3">
+        <x:v>45248</x:v>
+      </x:c>
+      <x:c r="B400" s="4" t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C400" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D400" s="4" t="n">
+        <x:v>7501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="401" spans="1:4">
+      <x:c r="A401" s="3">
+        <x:v>45250</x:v>
+      </x:c>
+      <x:c r="B401" s="4" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C401" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D401" s="4" t="n">
+        <x:v>42636</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="402" spans="1:4">
+      <x:c r="A402" s="3">
+        <x:v>45251</x:v>
+      </x:c>
+      <x:c r="B402" s="4" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C402" s="4" t="n">
+        <x:v>21000</x:v>
+      </x:c>
+      <x:c r="D402" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="403" spans="1:4">
+      <x:c r="A403" s="3">
+        <x:v>45252</x:v>
+      </x:c>
+      <x:c r="B403" s="4" t="n">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C403" s="4" t="n">
+        <x:v>8355</x:v>
+      </x:c>
+      <x:c r="D403" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="404" spans="1:4">
+      <x:c r="A404" s="3">
+        <x:v>45252</x:v>
+      </x:c>
+      <x:c r="B404" s="4" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C404" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D404" s="4" t="n">
+        <x:v>13781</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="405" spans="1:4">
+      <x:c r="A405" s="3">
+        <x:v>45253</x:v>
+      </x:c>
+      <x:c r="B405" s="4" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C405" s="4" t="n">
+        <x:v>28744</x:v>
+      </x:c>
+      <x:c r="D405" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="406" spans="1:4">
+      <x:c r="A406" s="3">
+        <x:v>45253</x:v>
+      </x:c>
+      <x:c r="B406" s="4" t="n">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C406" s="4" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+      <x:c r="D406" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="407" spans="1:4">
+      <x:c r="A407" s="3">
+        <x:v>45254</x:v>
+      </x:c>
+      <x:c r="B407" s="4" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C407" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D407" s="4" t="n">
+        <x:v>4001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="408" spans="1:4">
+      <x:c r="A408" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B408" s="4" t="n">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C408" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D408" s="4" t="n">
+        <x:v>23003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="409" spans="1:4">
+      <x:c r="A409" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B409" s="4" t="n">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C409" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D409" s="4" t="n">
+        <x:v>6994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="410" spans="1:4">
+      <x:c r="A410" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B410" s="4" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C410" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D410" s="4" t="n">
+        <x:v>7156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="411" spans="1:4">
+      <x:c r="A411" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B411" s="4" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C411" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D411" s="4" t="n">
+        <x:v>22053</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="412" spans="1:4">
+      <x:c r="A412" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B412" s="4" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C412" s="4" t="n">
+        <x:v>94541</x:v>
+      </x:c>
+      <x:c r="D412" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="413" spans="1:4">
+      <x:c r="A413" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B413" s="4" t="n">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C413" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D413" s="4" t="n">
+        <x:v>9975</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="414" spans="1:4">
+      <x:c r="A414" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B414" s="4" t="n">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C414" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D414" s="4" t="n">
+        <x:v>4350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="415" spans="1:4">
+      <x:c r="A415" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B415" s="4" t="n">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C415" s="4" t="n">
+        <x:v>32004</x:v>
+      </x:c>
+      <x:c r="D415" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="416" spans="1:4">
+      <x:c r="A416" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B416" s="4" t="n">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C416" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D416" s="4" t="n">
+        <x:v>32592</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="417" spans="1:4">
+      <x:c r="A417" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B417" s="4" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C417" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D417" s="4" t="n">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="418" spans="1:4">
+      <x:c r="A418" s="3">
+        <x:v>45259</x:v>
+      </x:c>
+      <x:c r="B418" s="4" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C418" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D418" s="4" t="n">
+        <x:v>167806</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="419" spans="1:4">
+      <x:c r="A419" s="5" t="s"/>
+      <x:c r="B419" s="5" t="s"/>
+      <x:c r="C419" s="5" t="s"/>
+      <x:c r="D419" s="5" t="s"/>
+    </x:row>
+    <x:row r="420" spans="1:4">
+      <x:c r="A420" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B293" s="2" t="s"/>
-      <x:c r="C293" s="2" t="s"/>
-      <x:c r="D293" s="2" t="n">
-        <x:v>7064537</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="294" spans="1:4">
-      <x:c r="A294" s="2" t="s">
+      <x:c r="B420" s="2" t="s"/>
+      <x:c r="C420" s="2" t="s"/>
+      <x:c r="D420" s="2" t="n">
+        <x:v>10979299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="421" spans="1:4">
+      <x:c r="A421" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B294" s="2" t="s"/>
-      <x:c r="C294" s="2" t="s"/>
-      <x:c r="D294" s="2" t="n">
-        <x:v>1227389</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="295" spans="1:4">
-      <x:c r="A295" s="2" t="s">
+      <x:c r="B421" s="2" t="s"/>
+      <x:c r="C421" s="2" t="s"/>
+      <x:c r="D421" s="2" t="n">
+        <x:v>2077345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="422" spans="1:4">
+      <x:c r="A422" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B295" s="2" t="s"/>
-      <x:c r="C295" s="2" t="s"/>
-      <x:c r="D295" s="2" t="n">
-        <x:v>8291926</x:v>
+      <x:c r="B422" s="2" t="s"/>
+      <x:c r="C422" s="2" t="s"/>
+      <x:c r="D422" s="2" t="n">
+        <x:v>13056644</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1167">
+  <x:mergeCells count="1675">
     <x:mergeCell ref="A1:D1"/>
     <x:mergeCell ref="A2:A2"/>
     <x:mergeCell ref="B2:B2"/>
@@ -5742,12 +7520,520 @@
     <x:mergeCell ref="B291:B291"/>
     <x:mergeCell ref="C291:C291"/>
     <x:mergeCell ref="D291:D291"/>
-    <x:mergeCell ref="A293:C293"/>
+    <x:mergeCell ref="A292:A292"/>
+    <x:mergeCell ref="B292:B292"/>
+    <x:mergeCell ref="C292:C292"/>
+    <x:mergeCell ref="D292:D292"/>
+    <x:mergeCell ref="A293:A293"/>
+    <x:mergeCell ref="B293:B293"/>
+    <x:mergeCell ref="C293:C293"/>
     <x:mergeCell ref="D293:D293"/>
-    <x:mergeCell ref="A294:C294"/>
+    <x:mergeCell ref="A294:A294"/>
+    <x:mergeCell ref="B294:B294"/>
+    <x:mergeCell ref="C294:C294"/>
     <x:mergeCell ref="D294:D294"/>
-    <x:mergeCell ref="A295:C295"/>
+    <x:mergeCell ref="A295:A295"/>
+    <x:mergeCell ref="B295:B295"/>
+    <x:mergeCell ref="C295:C295"/>
     <x:mergeCell ref="D295:D295"/>
+    <x:mergeCell ref="A296:A296"/>
+    <x:mergeCell ref="B296:B296"/>
+    <x:mergeCell ref="C296:C296"/>
+    <x:mergeCell ref="D296:D296"/>
+    <x:mergeCell ref="A297:A297"/>
+    <x:mergeCell ref="B297:B297"/>
+    <x:mergeCell ref="C297:C297"/>
+    <x:mergeCell ref="D297:D297"/>
+    <x:mergeCell ref="A298:A298"/>
+    <x:mergeCell ref="B298:B298"/>
+    <x:mergeCell ref="C298:C298"/>
+    <x:mergeCell ref="D298:D298"/>
+    <x:mergeCell ref="A299:A299"/>
+    <x:mergeCell ref="B299:B299"/>
+    <x:mergeCell ref="C299:C299"/>
+    <x:mergeCell ref="D299:D299"/>
+    <x:mergeCell ref="A300:A300"/>
+    <x:mergeCell ref="B300:B300"/>
+    <x:mergeCell ref="C300:C300"/>
+    <x:mergeCell ref="D300:D300"/>
+    <x:mergeCell ref="A301:A301"/>
+    <x:mergeCell ref="B301:B301"/>
+    <x:mergeCell ref="C301:C301"/>
+    <x:mergeCell ref="D301:D301"/>
+    <x:mergeCell ref="A302:A302"/>
+    <x:mergeCell ref="B302:B302"/>
+    <x:mergeCell ref="C302:C302"/>
+    <x:mergeCell ref="D302:D302"/>
+    <x:mergeCell ref="A303:A303"/>
+    <x:mergeCell ref="B303:B303"/>
+    <x:mergeCell ref="C303:C303"/>
+    <x:mergeCell ref="D303:D303"/>
+    <x:mergeCell ref="A304:A304"/>
+    <x:mergeCell ref="B304:B304"/>
+    <x:mergeCell ref="C304:C304"/>
+    <x:mergeCell ref="D304:D304"/>
+    <x:mergeCell ref="A305:A305"/>
+    <x:mergeCell ref="B305:B305"/>
+    <x:mergeCell ref="C305:C305"/>
+    <x:mergeCell ref="D305:D305"/>
+    <x:mergeCell ref="A306:A306"/>
+    <x:mergeCell ref="B306:B306"/>
+    <x:mergeCell ref="C306:C306"/>
+    <x:mergeCell ref="D306:D306"/>
+    <x:mergeCell ref="A307:A307"/>
+    <x:mergeCell ref="B307:B307"/>
+    <x:mergeCell ref="C307:C307"/>
+    <x:mergeCell ref="D307:D307"/>
+    <x:mergeCell ref="A308:A308"/>
+    <x:mergeCell ref="B308:B308"/>
+    <x:mergeCell ref="C308:C308"/>
+    <x:mergeCell ref="D308:D308"/>
+    <x:mergeCell ref="A309:A309"/>
+    <x:mergeCell ref="B309:B309"/>
+    <x:mergeCell ref="C309:C309"/>
+    <x:mergeCell ref="D309:D309"/>
+    <x:mergeCell ref="A310:A310"/>
+    <x:mergeCell ref="B310:B310"/>
+    <x:mergeCell ref="C310:C310"/>
+    <x:mergeCell ref="D310:D310"/>
+    <x:mergeCell ref="A311:A311"/>
+    <x:mergeCell ref="B311:B311"/>
+    <x:mergeCell ref="C311:C311"/>
+    <x:mergeCell ref="D311:D311"/>
+    <x:mergeCell ref="A312:A312"/>
+    <x:mergeCell ref="B312:B312"/>
+    <x:mergeCell ref="C312:C312"/>
+    <x:mergeCell ref="D312:D312"/>
+    <x:mergeCell ref="A313:A313"/>
+    <x:mergeCell ref="B313:B313"/>
+    <x:mergeCell ref="C313:C313"/>
+    <x:mergeCell ref="D313:D313"/>
+    <x:mergeCell ref="A314:A314"/>
+    <x:mergeCell ref="B314:B314"/>
+    <x:mergeCell ref="C314:C314"/>
+    <x:mergeCell ref="D314:D314"/>
+    <x:mergeCell ref="A315:A315"/>
+    <x:mergeCell ref="B315:B315"/>
+    <x:mergeCell ref="C315:C315"/>
+    <x:mergeCell ref="D315:D315"/>
+    <x:mergeCell ref="A316:A316"/>
+    <x:mergeCell ref="B316:B316"/>
+    <x:mergeCell ref="C316:C316"/>
+    <x:mergeCell ref="D316:D316"/>
+    <x:mergeCell ref="A317:A317"/>
+    <x:mergeCell ref="B317:B317"/>
+    <x:mergeCell ref="C317:C317"/>
+    <x:mergeCell ref="D317:D317"/>
+    <x:mergeCell ref="A318:A318"/>
+    <x:mergeCell ref="B318:B318"/>
+    <x:mergeCell ref="C318:C318"/>
+    <x:mergeCell ref="D318:D318"/>
+    <x:mergeCell ref="A319:A319"/>
+    <x:mergeCell ref="B319:B319"/>
+    <x:mergeCell ref="C319:C319"/>
+    <x:mergeCell ref="D319:D319"/>
+    <x:mergeCell ref="A320:A320"/>
+    <x:mergeCell ref="B320:B320"/>
+    <x:mergeCell ref="C320:C320"/>
+    <x:mergeCell ref="D320:D320"/>
+    <x:mergeCell ref="A321:A321"/>
+    <x:mergeCell ref="B321:B321"/>
+    <x:mergeCell ref="C321:C321"/>
+    <x:mergeCell ref="D321:D321"/>
+    <x:mergeCell ref="A322:A322"/>
+    <x:mergeCell ref="B322:B322"/>
+    <x:mergeCell ref="C322:C322"/>
+    <x:mergeCell ref="D322:D322"/>
+    <x:mergeCell ref="A323:A323"/>
+    <x:mergeCell ref="B323:B323"/>
+    <x:mergeCell ref="C323:C323"/>
+    <x:mergeCell ref="D323:D323"/>
+    <x:mergeCell ref="A324:A324"/>
+    <x:mergeCell ref="B324:B324"/>
+    <x:mergeCell ref="C324:C324"/>
+    <x:mergeCell ref="D324:D324"/>
+    <x:mergeCell ref="A325:A325"/>
+    <x:mergeCell ref="B325:B325"/>
+    <x:mergeCell ref="C325:C325"/>
+    <x:mergeCell ref="D325:D325"/>
+    <x:mergeCell ref="A326:A326"/>
+    <x:mergeCell ref="B326:B326"/>
+    <x:mergeCell ref="C326:C326"/>
+    <x:mergeCell ref="D326:D326"/>
+    <x:mergeCell ref="A327:A327"/>
+    <x:mergeCell ref="B327:B327"/>
+    <x:mergeCell ref="C327:C327"/>
+    <x:mergeCell ref="D327:D327"/>
+    <x:mergeCell ref="A328:A328"/>
+    <x:mergeCell ref="B328:B328"/>
+    <x:mergeCell ref="C328:C328"/>
+    <x:mergeCell ref="D328:D328"/>
+    <x:mergeCell ref="A329:A329"/>
+    <x:mergeCell ref="B329:B329"/>
+    <x:mergeCell ref="C329:C329"/>
+    <x:mergeCell ref="D329:D329"/>
+    <x:mergeCell ref="A330:A330"/>
+    <x:mergeCell ref="B330:B330"/>
+    <x:mergeCell ref="C330:C330"/>
+    <x:mergeCell ref="D330:D330"/>
+    <x:mergeCell ref="A331:A331"/>
+    <x:mergeCell ref="B331:B331"/>
+    <x:mergeCell ref="C331:C331"/>
+    <x:mergeCell ref="D331:D331"/>
+    <x:mergeCell ref="A332:A332"/>
+    <x:mergeCell ref="B332:B332"/>
+    <x:mergeCell ref="C332:C332"/>
+    <x:mergeCell ref="D332:D332"/>
+    <x:mergeCell ref="A333:A333"/>
+    <x:mergeCell ref="B333:B333"/>
+    <x:mergeCell ref="C333:C333"/>
+    <x:mergeCell ref="D333:D333"/>
+    <x:mergeCell ref="A334:A334"/>
+    <x:mergeCell ref="B334:B334"/>
+    <x:mergeCell ref="C334:C334"/>
+    <x:mergeCell ref="D334:D334"/>
+    <x:mergeCell ref="A335:A335"/>
+    <x:mergeCell ref="B335:B335"/>
+    <x:mergeCell ref="C335:C335"/>
+    <x:mergeCell ref="D335:D335"/>
+    <x:mergeCell ref="A336:A336"/>
+    <x:mergeCell ref="B336:B336"/>
+    <x:mergeCell ref="C336:C336"/>
+    <x:mergeCell ref="D336:D336"/>
+    <x:mergeCell ref="A337:A337"/>
+    <x:mergeCell ref="B337:B337"/>
+    <x:mergeCell ref="C337:C337"/>
+    <x:mergeCell ref="D337:D337"/>
+    <x:mergeCell ref="A338:A338"/>
+    <x:mergeCell ref="B338:B338"/>
+    <x:mergeCell ref="C338:C338"/>
+    <x:mergeCell ref="D338:D338"/>
+    <x:mergeCell ref="A339:A339"/>
+    <x:mergeCell ref="B339:B339"/>
+    <x:mergeCell ref="C339:C339"/>
+    <x:mergeCell ref="D339:D339"/>
+    <x:mergeCell ref="A340:A340"/>
+    <x:mergeCell ref="B340:B340"/>
+    <x:mergeCell ref="C340:C340"/>
+    <x:mergeCell ref="D340:D340"/>
+    <x:mergeCell ref="A341:A341"/>
+    <x:mergeCell ref="B341:B341"/>
+    <x:mergeCell ref="C341:C341"/>
+    <x:mergeCell ref="D341:D341"/>
+    <x:mergeCell ref="A342:A342"/>
+    <x:mergeCell ref="B342:B342"/>
+    <x:mergeCell ref="C342:C342"/>
+    <x:mergeCell ref="D342:D342"/>
+    <x:mergeCell ref="A343:A343"/>
+    <x:mergeCell ref="B343:B343"/>
+    <x:mergeCell ref="C343:C343"/>
+    <x:mergeCell ref="D343:D343"/>
+    <x:mergeCell ref="A344:A344"/>
+    <x:mergeCell ref="B344:B344"/>
+    <x:mergeCell ref="C344:C344"/>
+    <x:mergeCell ref="D344:D344"/>
+    <x:mergeCell ref="A345:A345"/>
+    <x:mergeCell ref="B345:B345"/>
+    <x:mergeCell ref="C345:C345"/>
+    <x:mergeCell ref="D345:D345"/>
+    <x:mergeCell ref="A346:A346"/>
+    <x:mergeCell ref="B346:B346"/>
+    <x:mergeCell ref="C346:C346"/>
+    <x:mergeCell ref="D346:D346"/>
+    <x:mergeCell ref="A347:A347"/>
+    <x:mergeCell ref="B347:B347"/>
+    <x:mergeCell ref="C347:C347"/>
+    <x:mergeCell ref="D347:D347"/>
+    <x:mergeCell ref="A348:A348"/>
+    <x:mergeCell ref="B348:B348"/>
+    <x:mergeCell ref="C348:C348"/>
+    <x:mergeCell ref="D348:D348"/>
+    <x:mergeCell ref="A349:A349"/>
+    <x:mergeCell ref="B349:B349"/>
+    <x:mergeCell ref="C349:C349"/>
+    <x:mergeCell ref="D349:D349"/>
+    <x:mergeCell ref="A350:A350"/>
+    <x:mergeCell ref="B350:B350"/>
+    <x:mergeCell ref="C350:C350"/>
+    <x:mergeCell ref="D350:D350"/>
+    <x:mergeCell ref="A351:A351"/>
+    <x:mergeCell ref="B351:B351"/>
+    <x:mergeCell ref="C351:C351"/>
+    <x:mergeCell ref="D351:D351"/>
+    <x:mergeCell ref="A352:A352"/>
+    <x:mergeCell ref="B352:B352"/>
+    <x:mergeCell ref="C352:C352"/>
+    <x:mergeCell ref="D352:D352"/>
+    <x:mergeCell ref="A353:A353"/>
+    <x:mergeCell ref="B353:B353"/>
+    <x:mergeCell ref="C353:C353"/>
+    <x:mergeCell ref="D353:D353"/>
+    <x:mergeCell ref="A354:A354"/>
+    <x:mergeCell ref="B354:B354"/>
+    <x:mergeCell ref="C354:C354"/>
+    <x:mergeCell ref="D354:D354"/>
+    <x:mergeCell ref="A355:A355"/>
+    <x:mergeCell ref="B355:B355"/>
+    <x:mergeCell ref="C355:C355"/>
+    <x:mergeCell ref="D355:D355"/>
+    <x:mergeCell ref="A356:A356"/>
+    <x:mergeCell ref="B356:B356"/>
+    <x:mergeCell ref="C356:C356"/>
+    <x:mergeCell ref="D356:D356"/>
+    <x:mergeCell ref="A357:A357"/>
+    <x:mergeCell ref="B357:B357"/>
+    <x:mergeCell ref="C357:C357"/>
+    <x:mergeCell ref="D357:D357"/>
+    <x:mergeCell ref="A358:A358"/>
+    <x:mergeCell ref="B358:B358"/>
+    <x:mergeCell ref="C358:C358"/>
+    <x:mergeCell ref="D358:D358"/>
+    <x:mergeCell ref="A359:A359"/>
+    <x:mergeCell ref="B359:B359"/>
+    <x:mergeCell ref="C359:C359"/>
+    <x:mergeCell ref="D359:D359"/>
+    <x:mergeCell ref="A360:A360"/>
+    <x:mergeCell ref="B360:B360"/>
+    <x:mergeCell ref="C360:C360"/>
+    <x:mergeCell ref="D360:D360"/>
+    <x:mergeCell ref="A361:A361"/>
+    <x:mergeCell ref="B361:B361"/>
+    <x:mergeCell ref="C361:C361"/>
+    <x:mergeCell ref="D361:D361"/>
+    <x:mergeCell ref="A362:A362"/>
+    <x:mergeCell ref="B362:B362"/>
+    <x:mergeCell ref="C362:C362"/>
+    <x:mergeCell ref="D362:D362"/>
+    <x:mergeCell ref="A363:A363"/>
+    <x:mergeCell ref="B363:B363"/>
+    <x:mergeCell ref="C363:C363"/>
+    <x:mergeCell ref="D363:D363"/>
+    <x:mergeCell ref="A364:A364"/>
+    <x:mergeCell ref="B364:B364"/>
+    <x:mergeCell ref="C364:C364"/>
+    <x:mergeCell ref="D364:D364"/>
+    <x:mergeCell ref="A365:A365"/>
+    <x:mergeCell ref="B365:B365"/>
+    <x:mergeCell ref="C365:C365"/>
+    <x:mergeCell ref="D365:D365"/>
+    <x:mergeCell ref="A366:A366"/>
+    <x:mergeCell ref="B366:B366"/>
+    <x:mergeCell ref="C366:C366"/>
+    <x:mergeCell ref="D366:D366"/>
+    <x:mergeCell ref="A367:A367"/>
+    <x:mergeCell ref="B367:B367"/>
+    <x:mergeCell ref="C367:C367"/>
+    <x:mergeCell ref="D367:D367"/>
+    <x:mergeCell ref="A368:A368"/>
+    <x:mergeCell ref="B368:B368"/>
+    <x:mergeCell ref="C368:C368"/>
+    <x:mergeCell ref="D368:D368"/>
+    <x:mergeCell ref="A369:A369"/>
+    <x:mergeCell ref="B369:B369"/>
+    <x:mergeCell ref="C369:C369"/>
+    <x:mergeCell ref="D369:D369"/>
+    <x:mergeCell ref="A370:A370"/>
+    <x:mergeCell ref="B370:B370"/>
+    <x:mergeCell ref="C370:C370"/>
+    <x:mergeCell ref="D370:D370"/>
+    <x:mergeCell ref="A371:A371"/>
+    <x:mergeCell ref="B371:B371"/>
+    <x:mergeCell ref="C371:C371"/>
+    <x:mergeCell ref="D371:D371"/>
+    <x:mergeCell ref="A372:A372"/>
+    <x:mergeCell ref="B372:B372"/>
+    <x:mergeCell ref="C372:C372"/>
+    <x:mergeCell ref="D372:D372"/>
+    <x:mergeCell ref="A373:A373"/>
+    <x:mergeCell ref="B373:B373"/>
+    <x:mergeCell ref="C373:C373"/>
+    <x:mergeCell ref="D373:D373"/>
+    <x:mergeCell ref="A374:A374"/>
+    <x:mergeCell ref="B374:B374"/>
+    <x:mergeCell ref="C374:C374"/>
+    <x:mergeCell ref="D374:D374"/>
+    <x:mergeCell ref="A375:A375"/>
+    <x:mergeCell ref="B375:B375"/>
+    <x:mergeCell ref="C375:C375"/>
+    <x:mergeCell ref="D375:D375"/>
+    <x:mergeCell ref="A376:A376"/>
+    <x:mergeCell ref="B376:B376"/>
+    <x:mergeCell ref="C376:C376"/>
+    <x:mergeCell ref="D376:D376"/>
+    <x:mergeCell ref="A377:A377"/>
+    <x:mergeCell ref="B377:B377"/>
+    <x:mergeCell ref="C377:C377"/>
+    <x:mergeCell ref="D377:D377"/>
+    <x:mergeCell ref="A378:A378"/>
+    <x:mergeCell ref="B378:B378"/>
+    <x:mergeCell ref="C378:C378"/>
+    <x:mergeCell ref="D378:D378"/>
+    <x:mergeCell ref="A379:A379"/>
+    <x:mergeCell ref="B379:B379"/>
+    <x:mergeCell ref="C379:C379"/>
+    <x:mergeCell ref="D379:D379"/>
+    <x:mergeCell ref="A380:A380"/>
+    <x:mergeCell ref="B380:B380"/>
+    <x:mergeCell ref="C380:C380"/>
+    <x:mergeCell ref="D380:D380"/>
+    <x:mergeCell ref="A381:A381"/>
+    <x:mergeCell ref="B381:B381"/>
+    <x:mergeCell ref="C381:C381"/>
+    <x:mergeCell ref="D381:D381"/>
+    <x:mergeCell ref="A382:A382"/>
+    <x:mergeCell ref="B382:B382"/>
+    <x:mergeCell ref="C382:C382"/>
+    <x:mergeCell ref="D382:D382"/>
+    <x:mergeCell ref="A383:A383"/>
+    <x:mergeCell ref="B383:B383"/>
+    <x:mergeCell ref="C383:C383"/>
+    <x:mergeCell ref="D383:D383"/>
+    <x:mergeCell ref="A384:A384"/>
+    <x:mergeCell ref="B384:B384"/>
+    <x:mergeCell ref="C384:C384"/>
+    <x:mergeCell ref="D384:D384"/>
+    <x:mergeCell ref="A385:A385"/>
+    <x:mergeCell ref="B385:B385"/>
+    <x:mergeCell ref="C385:C385"/>
+    <x:mergeCell ref="D385:D385"/>
+    <x:mergeCell ref="A386:A386"/>
+    <x:mergeCell ref="B386:B386"/>
+    <x:mergeCell ref="C386:C386"/>
+    <x:mergeCell ref="D386:D386"/>
+    <x:mergeCell ref="A387:A387"/>
+    <x:mergeCell ref="B387:B387"/>
+    <x:mergeCell ref="C387:C387"/>
+    <x:mergeCell ref="D387:D387"/>
+    <x:mergeCell ref="A388:A388"/>
+    <x:mergeCell ref="B388:B388"/>
+    <x:mergeCell ref="C388:C388"/>
+    <x:mergeCell ref="D388:D388"/>
+    <x:mergeCell ref="A389:A389"/>
+    <x:mergeCell ref="B389:B389"/>
+    <x:mergeCell ref="C389:C389"/>
+    <x:mergeCell ref="D389:D389"/>
+    <x:mergeCell ref="A390:A390"/>
+    <x:mergeCell ref="B390:B390"/>
+    <x:mergeCell ref="C390:C390"/>
+    <x:mergeCell ref="D390:D390"/>
+    <x:mergeCell ref="A391:A391"/>
+    <x:mergeCell ref="B391:B391"/>
+    <x:mergeCell ref="C391:C391"/>
+    <x:mergeCell ref="D391:D391"/>
+    <x:mergeCell ref="A392:A392"/>
+    <x:mergeCell ref="B392:B392"/>
+    <x:mergeCell ref="C392:C392"/>
+    <x:mergeCell ref="D392:D392"/>
+    <x:mergeCell ref="A393:A393"/>
+    <x:mergeCell ref="B393:B393"/>
+    <x:mergeCell ref="C393:C393"/>
+    <x:mergeCell ref="D393:D393"/>
+    <x:mergeCell ref="A394:A394"/>
+    <x:mergeCell ref="B394:B394"/>
+    <x:mergeCell ref="C394:C394"/>
+    <x:mergeCell ref="D394:D394"/>
+    <x:mergeCell ref="A395:A395"/>
+    <x:mergeCell ref="B395:B395"/>
+    <x:mergeCell ref="C395:C395"/>
+    <x:mergeCell ref="D395:D395"/>
+    <x:mergeCell ref="A396:A396"/>
+    <x:mergeCell ref="B396:B396"/>
+    <x:mergeCell ref="C396:C396"/>
+    <x:mergeCell ref="D396:D396"/>
+    <x:mergeCell ref="A397:A397"/>
+    <x:mergeCell ref="B397:B397"/>
+    <x:mergeCell ref="C397:C397"/>
+    <x:mergeCell ref="D397:D397"/>
+    <x:mergeCell ref="A398:A398"/>
+    <x:mergeCell ref="B398:B398"/>
+    <x:mergeCell ref="C398:C398"/>
+    <x:mergeCell ref="D398:D398"/>
+    <x:mergeCell ref="A399:A399"/>
+    <x:mergeCell ref="B399:B399"/>
+    <x:mergeCell ref="C399:C399"/>
+    <x:mergeCell ref="D399:D399"/>
+    <x:mergeCell ref="A400:A400"/>
+    <x:mergeCell ref="B400:B400"/>
+    <x:mergeCell ref="C400:C400"/>
+    <x:mergeCell ref="D400:D400"/>
+    <x:mergeCell ref="A401:A401"/>
+    <x:mergeCell ref="B401:B401"/>
+    <x:mergeCell ref="C401:C401"/>
+    <x:mergeCell ref="D401:D401"/>
+    <x:mergeCell ref="A402:A402"/>
+    <x:mergeCell ref="B402:B402"/>
+    <x:mergeCell ref="C402:C402"/>
+    <x:mergeCell ref="D402:D402"/>
+    <x:mergeCell ref="A403:A403"/>
+    <x:mergeCell ref="B403:B403"/>
+    <x:mergeCell ref="C403:C403"/>
+    <x:mergeCell ref="D403:D403"/>
+    <x:mergeCell ref="A404:A404"/>
+    <x:mergeCell ref="B404:B404"/>
+    <x:mergeCell ref="C404:C404"/>
+    <x:mergeCell ref="D404:D404"/>
+    <x:mergeCell ref="A405:A405"/>
+    <x:mergeCell ref="B405:B405"/>
+    <x:mergeCell ref="C405:C405"/>
+    <x:mergeCell ref="D405:D405"/>
+    <x:mergeCell ref="A406:A406"/>
+    <x:mergeCell ref="B406:B406"/>
+    <x:mergeCell ref="C406:C406"/>
+    <x:mergeCell ref="D406:D406"/>
+    <x:mergeCell ref="A407:A407"/>
+    <x:mergeCell ref="B407:B407"/>
+    <x:mergeCell ref="C407:C407"/>
+    <x:mergeCell ref="D407:D407"/>
+    <x:mergeCell ref="A408:A408"/>
+    <x:mergeCell ref="B408:B408"/>
+    <x:mergeCell ref="C408:C408"/>
+    <x:mergeCell ref="D408:D408"/>
+    <x:mergeCell ref="A409:A409"/>
+    <x:mergeCell ref="B409:B409"/>
+    <x:mergeCell ref="C409:C409"/>
+    <x:mergeCell ref="D409:D409"/>
+    <x:mergeCell ref="A410:A410"/>
+    <x:mergeCell ref="B410:B410"/>
+    <x:mergeCell ref="C410:C410"/>
+    <x:mergeCell ref="D410:D410"/>
+    <x:mergeCell ref="A411:A411"/>
+    <x:mergeCell ref="B411:B411"/>
+    <x:mergeCell ref="C411:C411"/>
+    <x:mergeCell ref="D411:D411"/>
+    <x:mergeCell ref="A412:A412"/>
+    <x:mergeCell ref="B412:B412"/>
+    <x:mergeCell ref="C412:C412"/>
+    <x:mergeCell ref="D412:D412"/>
+    <x:mergeCell ref="A413:A413"/>
+    <x:mergeCell ref="B413:B413"/>
+    <x:mergeCell ref="C413:C413"/>
+    <x:mergeCell ref="D413:D413"/>
+    <x:mergeCell ref="A414:A414"/>
+    <x:mergeCell ref="B414:B414"/>
+    <x:mergeCell ref="C414:C414"/>
+    <x:mergeCell ref="D414:D414"/>
+    <x:mergeCell ref="A415:A415"/>
+    <x:mergeCell ref="B415:B415"/>
+    <x:mergeCell ref="C415:C415"/>
+    <x:mergeCell ref="D415:D415"/>
+    <x:mergeCell ref="A416:A416"/>
+    <x:mergeCell ref="B416:B416"/>
+    <x:mergeCell ref="C416:C416"/>
+    <x:mergeCell ref="D416:D416"/>
+    <x:mergeCell ref="A417:A417"/>
+    <x:mergeCell ref="B417:B417"/>
+    <x:mergeCell ref="C417:C417"/>
+    <x:mergeCell ref="D417:D417"/>
+    <x:mergeCell ref="A418:A418"/>
+    <x:mergeCell ref="B418:B418"/>
+    <x:mergeCell ref="C418:C418"/>
+    <x:mergeCell ref="D418:D418"/>
+    <x:mergeCell ref="A420:C420"/>
+    <x:mergeCell ref="D420:D420"/>
+    <x:mergeCell ref="A421:C421"/>
+    <x:mergeCell ref="D421:D421"/>
+    <x:mergeCell ref="A422:C422"/>
+    <x:mergeCell ref="D422:D422"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
